--- a/PetPass - Modelo Planejamento Financeiro (Simplificado).xlsx
+++ b/PetPass - Modelo Planejamento Financeiro (Simplificado).xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23524"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AD0A02E-D70F-4571-AA52-A6362ED5E65A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Victor Hugo\MBA_FullStack\Empreendedorismo e Inovação\MBAFullStackPetPass\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9844B770-4229-4038-9BFB-66E31F141E23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InformacoesBasicas" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <sheet name="Saídas de $" sheetId="5" r:id="rId5"/>
     <sheet name="Resumo-Planejamento Financeiro" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4" calcCompleted="0"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -925,7 +930,7 @@
     <numFmt numFmtId="168" formatCode="&quot;R$ &quot;#,##0;[Red]&quot;-R$ &quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1240,7 +1245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1538,19 +1543,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.95" customHeight="1">
+    <row r="1" spans="1:6" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -1560,7 +1565,7 @@
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -1568,7 +1573,7 @@
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="38"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -1576,7 +1581,7 @@
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -1584,7 +1589,7 @@
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -1592,7 +1597,7 @@
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -1600,7 +1605,7 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
@@ -1608,7 +1613,7 @@
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1619,7 +1624,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1630,19 +1635,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="39"/>
       <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="39"/>
       <c r="C12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>IF(B10=2,"Nomes dos serviços que sua empresa irá vender","Nome dos produtos que sua empresa irá vender")</f>
         <v>Nomes dos serviços que sua empresa irá vender</v>
@@ -1650,7 +1655,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1661,7 +1666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1672,7 +1677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1683,7 +1688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1694,12 +1699,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1707,7 +1712,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1715,7 +1720,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1723,7 +1728,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1731,12 +1736,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1744,7 +1749,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1752,7 +1757,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1760,7 +1765,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1768,12 +1773,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1781,7 +1786,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -1789,7 +1794,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -1797,7 +1802,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -1818,26 +1823,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ105"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N98" sqref="N98"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" style="5" customWidth="1"/>
     <col min="2" max="13" width="11" style="5" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="6" customWidth="1"/>
-    <col min="15" max="1024" width="9.140625" style="5"/>
+    <col min="14" max="14" width="15.44140625" style="6" customWidth="1"/>
+    <col min="15" max="1024" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.95">
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -1881,114 +1884,114 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="11">
-        <f>B7+B11+B15+B19</f>
+        <f t="shared" ref="B5:N5" si="0">B7+B11+B15+B19</f>
         <v>17200</v>
       </c>
       <c r="C5" s="11">
-        <f>C7+C11+C15+C19</f>
+        <f t="shared" si="0"/>
         <v>21200</v>
       </c>
       <c r="D5" s="11">
-        <f>D7+D11+D15+D19</f>
+        <f t="shared" si="0"/>
         <v>31200</v>
       </c>
       <c r="E5" s="11">
-        <f>E7+E11+E15+E19</f>
+        <f t="shared" si="0"/>
         <v>39200</v>
       </c>
       <c r="F5" s="11">
-        <f>F7+F11+F15+F19</f>
+        <f t="shared" si="0"/>
         <v>47000</v>
       </c>
       <c r="G5" s="11">
-        <f>G7+G11+G15+G19</f>
+        <f t="shared" si="0"/>
         <v>53000</v>
       </c>
       <c r="H5" s="11">
-        <f>H7+H11+H15+H19</f>
+        <f t="shared" si="0"/>
         <v>61000</v>
       </c>
       <c r="I5" s="11">
-        <f>I7+I11+I15+I19</f>
+        <f t="shared" si="0"/>
         <v>67000</v>
       </c>
       <c r="J5" s="11">
-        <f>J7+J11+J15+J19</f>
+        <f t="shared" si="0"/>
         <v>76000</v>
       </c>
       <c r="K5" s="11">
-        <f>K7+K11+K15+K19</f>
+        <f t="shared" si="0"/>
         <v>86000</v>
       </c>
       <c r="L5" s="11">
-        <f>L7+L11+L15+L19</f>
+        <f t="shared" si="0"/>
         <v>92000</v>
       </c>
       <c r="M5" s="11">
-        <f>M7+M11+M15+M19</f>
+        <f t="shared" si="0"/>
         <v>98000</v>
       </c>
       <c r="N5" s="11">
-        <f>N7+N11+N15+N19</f>
+        <f t="shared" si="0"/>
         <v>688800</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C16</f>
         <v>Vendas de BRONZE</v>
       </c>
       <c r="B7" s="13">
-        <f>B8*B9</f>
+        <f t="shared" ref="B7:M7" si="1">B8*B9</f>
         <v>2000</v>
       </c>
       <c r="C7" s="13">
-        <f>C8*C9</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="D7" s="13">
-        <f>D8*D9</f>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="E7" s="13">
-        <f>E8*E9</f>
+        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="F7" s="13">
-        <f>F8*F9</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="G7" s="13">
-        <f>G8*G9</f>
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
       <c r="H7" s="13">
-        <f>H8*H9</f>
+        <f t="shared" si="1"/>
         <v>14000</v>
       </c>
       <c r="I7" s="13">
-        <f>I8*I9</f>
+        <f t="shared" si="1"/>
         <v>16000</v>
       </c>
       <c r="J7" s="13">
-        <f>J8*J9</f>
+        <f t="shared" si="1"/>
         <v>18000</v>
       </c>
       <c r="K7" s="13">
-        <f>K8*K9</f>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="L7" s="13">
-        <f>L8*L9</f>
+        <f t="shared" si="1"/>
         <v>22000</v>
       </c>
       <c r="M7" s="13">
-        <f>M8*M9</f>
+        <f t="shared" si="1"/>
         <v>24000</v>
       </c>
       <c r="N7" s="14">
@@ -1996,7 +1999,7 @@
         <v>156000</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -2041,7 +2044,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C16</f>
         <v>Preço de BRONZE</v>
@@ -2087,57 +2090,57 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C17</f>
         <v>Vendas de PRATA</v>
       </c>
       <c r="B11" s="13">
-        <f>B12*B13</f>
+        <f t="shared" ref="B11:M11" si="2">B12*B13</f>
         <v>10000</v>
       </c>
       <c r="C11" s="13">
-        <f>C12*C13</f>
+        <f t="shared" si="2"/>
         <v>12000</v>
       </c>
       <c r="D11" s="13">
-        <f>D12*D13</f>
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
       <c r="E11" s="13">
-        <f>E12*E13</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
       <c r="F11" s="13">
-        <f>F12*F13</f>
+        <f t="shared" si="2"/>
         <v>28000</v>
       </c>
       <c r="G11" s="13">
-        <f>G12*G13</f>
+        <f t="shared" si="2"/>
         <v>32000</v>
       </c>
       <c r="H11" s="13">
-        <f>H12*H13</f>
+        <f t="shared" si="2"/>
         <v>36000</v>
       </c>
       <c r="I11" s="13">
-        <f>I12*I13</f>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
       <c r="J11" s="13">
-        <f>J12*J13</f>
+        <f t="shared" si="2"/>
         <v>44000</v>
       </c>
       <c r="K11" s="13">
-        <f>K12*K13</f>
+        <f t="shared" si="2"/>
         <v>48000</v>
       </c>
       <c r="L11" s="13">
-        <f>L12*L13</f>
+        <f t="shared" si="2"/>
         <v>52000</v>
       </c>
       <c r="M11" s="13">
-        <f>M12*M13</f>
+        <f t="shared" si="2"/>
         <v>56000</v>
       </c>
       <c r="N11" s="14">
@@ -2145,7 +2148,7 @@
         <v>402000</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
@@ -2190,7 +2193,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C17</f>
         <v>Preço de PRATA</v>
@@ -2236,57 +2239,57 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C18</f>
         <v>Vendas de OURO</v>
       </c>
       <c r="B15" s="13">
-        <f>B16*B17</f>
+        <f t="shared" ref="B15:M15" si="3">B16*B17</f>
         <v>4000</v>
       </c>
       <c r="C15" s="13">
-        <f>C16*C17</f>
+        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
       <c r="D15" s="13">
-        <f>D16*D17</f>
+        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
       <c r="E15" s="13">
-        <f>E16*E17</f>
+        <f t="shared" si="3"/>
         <v>6000</v>
       </c>
       <c r="F15" s="13">
-        <f>F16*F17</f>
+        <f t="shared" si="3"/>
         <v>6000</v>
       </c>
       <c r="G15" s="13">
-        <f>G16*G17</f>
+        <f t="shared" si="3"/>
         <v>6000</v>
       </c>
       <c r="H15" s="13">
-        <f>H16*H17</f>
+        <f t="shared" si="3"/>
         <v>8000</v>
       </c>
       <c r="I15" s="13">
-        <f>I16*I17</f>
+        <f t="shared" si="3"/>
         <v>8000</v>
       </c>
       <c r="J15" s="13">
-        <f>J16*J17</f>
+        <f t="shared" si="3"/>
         <v>8000</v>
       </c>
       <c r="K15" s="13">
-        <f>K16*K17</f>
+        <f t="shared" si="3"/>
         <v>12000</v>
       </c>
       <c r="L15" s="13">
-        <f>L16*L17</f>
+        <f t="shared" si="3"/>
         <v>12000</v>
       </c>
       <c r="M15" s="13">
-        <f>M16*M17</f>
+        <f t="shared" si="3"/>
         <v>12000</v>
       </c>
       <c r="N15" s="14">
@@ -2294,7 +2297,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C18</f>
         <v>Preço de OURO</v>
@@ -2385,57 +2388,57 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C19</f>
         <v>Vendas de DIAMANTE</v>
       </c>
       <c r="B19" s="13">
-        <f>B20*B21</f>
+        <f t="shared" ref="B19:M19" si="4">B20*B21</f>
         <v>1200</v>
       </c>
       <c r="C19" s="13">
-        <f>C20*C21</f>
+        <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="D19" s="13">
-        <f>D20*D21</f>
+        <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="E19" s="13">
-        <f>E20*E21</f>
+        <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="F19" s="13">
-        <f>F20*F21</f>
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
       <c r="G19" s="13">
-        <f>G20*G21</f>
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
       <c r="H19" s="13">
-        <f>H20*H21</f>
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
       <c r="I19" s="13">
-        <f>I20*I21</f>
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
       <c r="J19" s="13">
-        <f>J20*J21</f>
+        <f t="shared" si="4"/>
         <v>6000</v>
       </c>
       <c r="K19" s="13">
-        <f>K20*K21</f>
+        <f t="shared" si="4"/>
         <v>6000</v>
       </c>
       <c r="L19" s="13">
-        <f>L20*L21</f>
+        <f t="shared" si="4"/>
         <v>6000</v>
       </c>
       <c r="M19" s="13">
-        <f>M20*M21</f>
+        <f t="shared" si="4"/>
         <v>6000</v>
       </c>
       <c r="N19" s="14">
@@ -2443,7 +2446,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
@@ -2488,7 +2491,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C19</f>
         <v>Preço de DIAMANTE</v>
@@ -2534,7 +2537,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="12.75">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
@@ -2578,115 +2581,114 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="12.75">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="11">
-        <f>B27+B31+B35+B39</f>
+        <f t="shared" ref="B25:N25" si="5">B27+B31+B35+B39</f>
         <v>24860</v>
       </c>
       <c r="C25" s="11">
-        <f>C27+C31+C35+C39</f>
+        <f t="shared" si="5"/>
         <v>30580</v>
       </c>
       <c r="D25" s="11">
-        <f>D27+D31+D35+D39</f>
+        <f t="shared" si="5"/>
         <v>44880</v>
       </c>
       <c r="E25" s="11">
-        <f>E27+E31+E35+E39</f>
+        <f t="shared" si="5"/>
         <v>56540</v>
       </c>
       <c r="F25" s="11">
-        <f>F27+F31+F35+F39</f>
+        <f t="shared" si="5"/>
         <v>67760</v>
       </c>
       <c r="G25" s="11">
-        <f>G27+G31+G35+G39</f>
+        <f t="shared" si="5"/>
         <v>76340</v>
       </c>
       <c r="H25" s="11">
-        <f>H27+H31+H35+H39</f>
+        <f t="shared" si="5"/>
         <v>87560</v>
       </c>
       <c r="I25" s="11">
-        <f>I27+I31+I35+I39</f>
+        <f t="shared" si="5"/>
         <v>96140</v>
       </c>
       <c r="J25" s="11">
-        <f>J27+J31+J35+J39</f>
+        <f t="shared" si="5"/>
         <v>108680</v>
       </c>
       <c r="K25" s="11">
-        <f>K27+K31+K35+K39</f>
+        <f t="shared" si="5"/>
         <v>122980</v>
       </c>
       <c r="L25" s="11">
-        <f>L27+L31+L35+L39</f>
+        <f t="shared" si="5"/>
         <v>131560</v>
       </c>
       <c r="M25" s="11">
-        <f>M27+M31+M35+M39</f>
+        <f t="shared" si="5"/>
         <v>140140</v>
       </c>
       <c r="N25" s="11">
-        <f>N27+N31+N35+N39</f>
+        <f t="shared" si="5"/>
         <v>988020</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="12.75"/>
-    <row r="27" spans="1:14" ht="12.75">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C16</f>
         <v>Vendas de BRONZE</v>
       </c>
       <c r="B27" s="13">
-        <f>B28*B29</f>
+        <f t="shared" ref="B27:M27" si="6">B28*B29</f>
         <v>2860</v>
       </c>
       <c r="C27" s="13">
-        <f>C28*C29</f>
+        <f t="shared" si="6"/>
         <v>5720</v>
       </c>
       <c r="D27" s="13">
-        <f>D28*D29</f>
+        <f t="shared" si="6"/>
         <v>8580</v>
       </c>
       <c r="E27" s="13">
-        <f>E28*E29</f>
+        <f t="shared" si="6"/>
         <v>11440</v>
       </c>
       <c r="F27" s="13">
-        <f>F28*F29</f>
+        <f t="shared" si="6"/>
         <v>14300</v>
       </c>
       <c r="G27" s="13">
-        <f>G28*G29</f>
+        <f t="shared" si="6"/>
         <v>17160</v>
       </c>
       <c r="H27" s="13">
-        <f>H28*H29</f>
+        <f t="shared" si="6"/>
         <v>20020</v>
       </c>
       <c r="I27" s="13">
-        <f>I28*I29</f>
+        <f t="shared" si="6"/>
         <v>22880</v>
       </c>
       <c r="J27" s="13">
-        <f>J28*J29</f>
+        <f t="shared" si="6"/>
         <v>25740</v>
       </c>
       <c r="K27" s="13">
-        <f>K28*K29</f>
+        <f t="shared" si="6"/>
         <v>28600</v>
       </c>
       <c r="L27" s="13">
-        <f>L28*L29</f>
+        <f t="shared" si="6"/>
         <v>31460</v>
       </c>
       <c r="M27" s="13">
-        <f>M28*M29</f>
+        <f t="shared" si="6"/>
         <v>34320</v>
       </c>
       <c r="N27" s="14">
@@ -2694,7 +2696,7 @@
         <v>223080</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="12.75">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
@@ -2751,7 +2753,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="12.75">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C16</f>
         <v>Preço de BRONZE</v>
@@ -2765,43 +2767,43 @@
         <v>110</v>
       </c>
       <c r="D29" s="16">
-        <f t="shared" ref="D29:M29" si="0">C29</f>
+        <f t="shared" ref="D29:M29" si="7">C29</f>
         <v>110</v>
       </c>
       <c r="E29" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="F29" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="G29" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="H29" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="I29" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="J29" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="K29" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="L29" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="M29" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="N29" s="17">
@@ -2809,58 +2811,57 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="12.75"/>
-    <row r="31" spans="1:14" ht="12.75">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C17</f>
         <v>Vendas de PRATA</v>
       </c>
       <c r="B31" s="13">
-        <f>B32*B33</f>
+        <f t="shared" ref="B31:M31" si="8">B32*B33</f>
         <v>14300</v>
       </c>
       <c r="C31" s="13">
-        <f>C32*C33</f>
+        <f t="shared" si="8"/>
         <v>17160</v>
       </c>
       <c r="D31" s="13">
-        <f>D32*D33</f>
+        <f t="shared" si="8"/>
         <v>28600</v>
       </c>
       <c r="E31" s="13">
-        <f>E32*E33</f>
+        <f t="shared" si="8"/>
         <v>34320</v>
       </c>
       <c r="F31" s="13">
-        <f>F32*F33</f>
+        <f t="shared" si="8"/>
         <v>40040</v>
       </c>
       <c r="G31" s="13">
-        <f>G32*G33</f>
+        <f t="shared" si="8"/>
         <v>45760</v>
       </c>
       <c r="H31" s="13">
-        <f>H32*H33</f>
+        <f t="shared" si="8"/>
         <v>51480</v>
       </c>
       <c r="I31" s="13">
-        <f>I32*I33</f>
+        <f t="shared" si="8"/>
         <v>57200</v>
       </c>
       <c r="J31" s="13">
-        <f>J32*J33</f>
+        <f t="shared" si="8"/>
         <v>62920</v>
       </c>
       <c r="K31" s="13">
-        <f>K32*K33</f>
+        <f t="shared" si="8"/>
         <v>68640</v>
       </c>
       <c r="L31" s="13">
-        <f>L32*L33</f>
+        <f t="shared" si="8"/>
         <v>74360</v>
       </c>
       <c r="M31" s="13">
-        <f>M32*M33</f>
+        <f t="shared" si="8"/>
         <v>80080</v>
       </c>
       <c r="N31" s="14">
@@ -2868,7 +2869,7 @@
         <v>574860</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="12.75">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>27</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="12.75">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C17</f>
         <v>Preço de PRATA</v>
@@ -2939,43 +2940,43 @@
         <v>220</v>
       </c>
       <c r="D33" s="16">
-        <f t="shared" ref="D33:M33" si="1">C33</f>
+        <f t="shared" ref="D33:M33" si="9">C33</f>
         <v>220</v>
       </c>
       <c r="E33" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>220</v>
       </c>
       <c r="F33" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>220</v>
       </c>
       <c r="G33" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>220</v>
       </c>
       <c r="H33" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>220</v>
       </c>
       <c r="I33" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>220</v>
       </c>
       <c r="J33" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>220</v>
       </c>
       <c r="K33" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>220</v>
       </c>
       <c r="L33" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>220</v>
       </c>
       <c r="M33" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>220</v>
       </c>
       <c r="N33" s="17">
@@ -2983,58 +2984,57 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="12.75"/>
-    <row r="35" spans="1:14" ht="12.75">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C18</f>
         <v>Vendas de OURO</v>
       </c>
       <c r="B35" s="13">
-        <f>B36*B37</f>
+        <f t="shared" ref="B35:M35" si="10">B36*B37</f>
         <v>5720</v>
       </c>
       <c r="C35" s="13">
-        <f>C36*C37</f>
+        <f t="shared" si="10"/>
         <v>5720</v>
       </c>
       <c r="D35" s="13">
-        <f>D36*D37</f>
+        <f t="shared" si="10"/>
         <v>5720</v>
       </c>
       <c r="E35" s="13">
-        <f>E36*E37</f>
+        <f t="shared" si="10"/>
         <v>8800</v>
       </c>
       <c r="F35" s="13">
-        <f>F36*F37</f>
+        <f t="shared" si="10"/>
         <v>8800</v>
       </c>
       <c r="G35" s="13">
-        <f>G36*G37</f>
+        <f t="shared" si="10"/>
         <v>8800</v>
       </c>
       <c r="H35" s="13">
-        <f>H36*H37</f>
+        <f t="shared" si="10"/>
         <v>11440</v>
       </c>
       <c r="I35" s="13">
-        <f>I36*I37</f>
+        <f t="shared" si="10"/>
         <v>11440</v>
       </c>
       <c r="J35" s="13">
-        <f>J36*J37</f>
+        <f t="shared" si="10"/>
         <v>11440</v>
       </c>
       <c r="K35" s="13">
-        <f>K36*K37</f>
+        <f t="shared" si="10"/>
         <v>17160</v>
       </c>
       <c r="L35" s="13">
-        <f>L36*L37</f>
+        <f t="shared" si="10"/>
         <v>17160</v>
       </c>
       <c r="M35" s="13">
-        <f>M36*M37</f>
+        <f t="shared" si="10"/>
         <v>17160</v>
       </c>
       <c r="N35" s="14">
@@ -3042,7 +3042,7 @@
         <v>129360</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="12.75">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>27</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="12.75">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C18</f>
         <v>Preço de OURO</v>
@@ -3113,43 +3113,43 @@
         <v>440</v>
       </c>
       <c r="D37" s="16">
-        <f t="shared" ref="D37:M37" si="2">C37</f>
+        <f t="shared" ref="D37:M37" si="11">C37</f>
         <v>440</v>
       </c>
       <c r="E37" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>440</v>
       </c>
       <c r="F37" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>440</v>
       </c>
       <c r="G37" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>440</v>
       </c>
       <c r="H37" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>440</v>
       </c>
       <c r="I37" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>440</v>
       </c>
       <c r="J37" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>440</v>
       </c>
       <c r="K37" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>440</v>
       </c>
       <c r="L37" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>440</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>440</v>
       </c>
       <c r="N37" s="17">
@@ -3157,58 +3157,57 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="12.75"/>
-    <row r="39" spans="1:14" ht="12.75">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C19</f>
         <v>Vendas de DIAMANTE</v>
       </c>
       <c r="B39" s="13">
-        <f>B40*B41</f>
+        <f t="shared" ref="B39:M39" si="12">B40*B41</f>
         <v>1980</v>
       </c>
       <c r="C39" s="13">
-        <f>C40*C41</f>
+        <f t="shared" si="12"/>
         <v>1980</v>
       </c>
       <c r="D39" s="13">
-        <f>D40*D41</f>
+        <f t="shared" si="12"/>
         <v>1980</v>
       </c>
       <c r="E39" s="13">
-        <f>E40*E41</f>
+        <f t="shared" si="12"/>
         <v>1980</v>
       </c>
       <c r="F39" s="13">
-        <f>F40*F41</f>
+        <f t="shared" si="12"/>
         <v>4620</v>
       </c>
       <c r="G39" s="13">
-        <f>G40*G41</f>
+        <f t="shared" si="12"/>
         <v>4620</v>
       </c>
       <c r="H39" s="13">
-        <f>H40*H41</f>
+        <f t="shared" si="12"/>
         <v>4620</v>
       </c>
       <c r="I39" s="13">
-        <f>I40*I41</f>
+        <f t="shared" si="12"/>
         <v>4620</v>
       </c>
       <c r="J39" s="13">
-        <f>J40*J41</f>
+        <f t="shared" si="12"/>
         <v>8580</v>
       </c>
       <c r="K39" s="13">
-        <f>K40*K41</f>
+        <f t="shared" si="12"/>
         <v>8580</v>
       </c>
       <c r="L39" s="13">
-        <f>L40*L41</f>
+        <f t="shared" si="12"/>
         <v>8580</v>
       </c>
       <c r="M39" s="13">
-        <f>M40*M41</f>
+        <f t="shared" si="12"/>
         <v>8580</v>
       </c>
       <c r="N39" s="14">
@@ -3216,7 +3215,7 @@
         <v>60720</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="12.75">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>27</v>
       </c>
@@ -3273,7 +3272,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="12.75">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C19</f>
         <v>Preço de DIAMANTE</v>
@@ -3287,43 +3286,43 @@
         <v>660</v>
       </c>
       <c r="D41" s="16">
-        <f t="shared" ref="D41:M41" si="3">C41</f>
+        <f t="shared" ref="D41:M41" si="13">C41</f>
         <v>660</v>
       </c>
       <c r="E41" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>660</v>
       </c>
       <c r="F41" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>660</v>
       </c>
       <c r="G41" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>660</v>
       </c>
       <c r="H41" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>660</v>
       </c>
       <c r="I41" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>660</v>
       </c>
       <c r="J41" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>660</v>
       </c>
       <c r="K41" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>660</v>
       </c>
       <c r="L41" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>660</v>
       </c>
       <c r="M41" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>660</v>
       </c>
       <c r="N41" s="17">
@@ -3331,7 +3330,7 @@
         <v>7920</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="12.75">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>24</v>
       </c>
@@ -3375,115 +3374,114 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="12.75">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="11">
-        <f>B47+B51+B55+B59</f>
+        <f t="shared" ref="B45:N45" si="14">B47+B51+B55+B59</f>
         <v>39325</v>
       </c>
       <c r="C45" s="11">
-        <f>C47+C51+C55+C59</f>
+        <f t="shared" si="14"/>
         <v>48279</v>
       </c>
       <c r="D45" s="11">
-        <f>D47+D51+D55+D59</f>
+        <f t="shared" si="14"/>
         <v>70180</v>
       </c>
       <c r="E45" s="11">
-        <f>E47+E51+E55+E59</f>
+        <f t="shared" si="14"/>
         <v>87846</v>
       </c>
       <c r="F45" s="11">
-        <f>F47+F51+F55+F59</f>
+        <f t="shared" si="14"/>
         <v>104544</v>
       </c>
       <c r="G45" s="11">
-        <f>G47+G51+G55+G59</f>
+        <f t="shared" si="14"/>
         <v>117975</v>
       </c>
       <c r="H45" s="11">
-        <f>H47+H51+H55+H59</f>
+        <f t="shared" si="14"/>
         <v>135399</v>
       </c>
       <c r="I45" s="11">
-        <f>I47+I51+I55+I59</f>
+        <f t="shared" si="14"/>
         <v>148588</v>
       </c>
       <c r="J45" s="11">
-        <f>J47+J51+J55+J59</f>
+        <f t="shared" si="14"/>
         <v>168432</v>
       </c>
       <c r="K45" s="11">
-        <f>K47+K51+K55+K59</f>
+        <f t="shared" si="14"/>
         <v>190212</v>
       </c>
       <c r="L45" s="11">
-        <f>L47+L51+L55+L59</f>
+        <f t="shared" si="14"/>
         <v>203643</v>
       </c>
       <c r="M45" s="11">
-        <f>M47+M51+M55+M59</f>
+        <f t="shared" si="14"/>
         <v>216711</v>
       </c>
       <c r="N45" s="11">
-        <f>N47+N51+N55+N59</f>
+        <f t="shared" si="14"/>
         <v>1531134</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="12.75"/>
-    <row r="47" spans="1:14" ht="12.75">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C16</f>
         <v>Vendas de BRONZE</v>
       </c>
       <c r="B47" s="13">
-        <f>B48*B49</f>
+        <f t="shared" ref="B47:M47" si="15">B48*B49</f>
         <v>4477</v>
       </c>
       <c r="C47" s="13">
-        <f>C48*C49</f>
+        <f t="shared" si="15"/>
         <v>8833</v>
       </c>
       <c r="D47" s="13">
-        <f>D48*D49</f>
+        <f t="shared" si="15"/>
         <v>13310</v>
       </c>
       <c r="E47" s="13">
-        <f>E48*E49</f>
+        <f t="shared" si="15"/>
         <v>17666</v>
       </c>
       <c r="F47" s="13">
-        <f>F48*F49</f>
+        <f t="shared" si="15"/>
         <v>22022</v>
       </c>
       <c r="G47" s="13">
-        <f>G48*G49</f>
+        <f t="shared" si="15"/>
         <v>26499</v>
       </c>
       <c r="H47" s="13">
-        <f>H48*H49</f>
+        <f t="shared" si="15"/>
         <v>30855</v>
       </c>
       <c r="I47" s="13">
-        <f>I48*I49</f>
+        <f t="shared" si="15"/>
         <v>35332</v>
       </c>
       <c r="J47" s="13">
-        <f>J48*J49</f>
+        <f t="shared" si="15"/>
         <v>39688</v>
       </c>
       <c r="K47" s="13">
-        <f>K48*K49</f>
+        <f t="shared" si="15"/>
         <v>44044</v>
       </c>
       <c r="L47" s="13">
-        <f>L48*L49</f>
+        <f t="shared" si="15"/>
         <v>48521</v>
       </c>
       <c r="M47" s="13">
-        <f>M48*M49</f>
+        <f t="shared" si="15"/>
         <v>52877</v>
       </c>
       <c r="N47" s="14">
@@ -3491,7 +3489,7 @@
         <v>344124</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="12.75">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>27</v>
       </c>
@@ -3548,7 +3546,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="12.75">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C16</f>
         <v>Preço de BRONZE</v>
@@ -3562,43 +3560,43 @@
         <v>121</v>
       </c>
       <c r="D49" s="16">
-        <f t="shared" ref="D49:M49" si="4">C49</f>
+        <f t="shared" ref="D49:M49" si="16">C49</f>
         <v>121</v>
       </c>
       <c r="E49" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>121</v>
       </c>
       <c r="F49" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>121</v>
       </c>
       <c r="G49" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>121</v>
       </c>
       <c r="H49" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>121</v>
       </c>
       <c r="I49" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>121</v>
       </c>
       <c r="J49" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>121</v>
       </c>
       <c r="K49" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>121</v>
       </c>
       <c r="L49" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>121</v>
       </c>
       <c r="M49" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>121</v>
       </c>
       <c r="N49" s="17">
@@ -3606,58 +3604,57 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="12.75"/>
-    <row r="51" spans="1:14" ht="12.75">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C17</f>
         <v>Vendas de PRATA</v>
       </c>
       <c r="B51" s="13">
-        <f>B52*B53</f>
+        <f t="shared" ref="B51:M51" si="17">B52*B53</f>
         <v>22022</v>
       </c>
       <c r="C51" s="13">
-        <f>C52*C53</f>
+        <f t="shared" si="17"/>
         <v>26620</v>
       </c>
       <c r="D51" s="13">
-        <f>D52*D53</f>
+        <f t="shared" si="17"/>
         <v>44044</v>
       </c>
       <c r="E51" s="13">
-        <f>E52*E53</f>
+        <f t="shared" si="17"/>
         <v>52998</v>
       </c>
       <c r="F51" s="13">
-        <f>F52*F53</f>
+        <f t="shared" si="17"/>
         <v>61710</v>
       </c>
       <c r="G51" s="13">
-        <f>G52*G53</f>
+        <f t="shared" si="17"/>
         <v>70664</v>
       </c>
       <c r="H51" s="13">
-        <f>H52*H53</f>
+        <f t="shared" si="17"/>
         <v>79376</v>
       </c>
       <c r="I51" s="13">
-        <f>I52*I53</f>
+        <f t="shared" si="17"/>
         <v>88088</v>
       </c>
       <c r="J51" s="13">
-        <f>J52*J53</f>
+        <f t="shared" si="17"/>
         <v>97042</v>
       </c>
       <c r="K51" s="13">
-        <f>K52*K53</f>
+        <f t="shared" si="17"/>
         <v>105754</v>
       </c>
       <c r="L51" s="13">
-        <f>L52*L53</f>
+        <f t="shared" si="17"/>
         <v>114708</v>
       </c>
       <c r="M51" s="13">
-        <f>M52*M53</f>
+        <f t="shared" si="17"/>
         <v>123420</v>
       </c>
       <c r="N51" s="14">
@@ -3665,7 +3662,7 @@
         <v>886446</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="12.75">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>27</v>
       </c>
@@ -3722,7 +3719,7 @@
         <v>3663</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="12.75">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C17</f>
         <v>Preço de PRATA</v>
@@ -3736,43 +3733,43 @@
         <v>242</v>
       </c>
       <c r="D53" s="16">
-        <f t="shared" ref="D53:M53" si="5">C53</f>
+        <f t="shared" ref="D53:M53" si="18">C53</f>
         <v>242</v>
       </c>
       <c r="E53" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>242</v>
       </c>
       <c r="F53" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>242</v>
       </c>
       <c r="G53" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>242</v>
       </c>
       <c r="H53" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>242</v>
       </c>
       <c r="I53" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>242</v>
       </c>
       <c r="J53" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>242</v>
       </c>
       <c r="K53" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>242</v>
       </c>
       <c r="L53" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>242</v>
       </c>
       <c r="M53" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>242</v>
       </c>
       <c r="N53" s="17">
@@ -3780,58 +3777,57 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="12.75"/>
-    <row r="55" spans="1:14" ht="12.75">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C18</f>
         <v>Vendas de OURO</v>
       </c>
       <c r="B55" s="13">
-        <f>B56*B57</f>
+        <f t="shared" ref="B55:M55" si="19">B56*B57</f>
         <v>9196</v>
       </c>
       <c r="C55" s="13">
-        <f>C56*C57</f>
+        <f t="shared" si="19"/>
         <v>9196</v>
       </c>
       <c r="D55" s="13">
-        <f>D56*D57</f>
+        <f t="shared" si="19"/>
         <v>9196</v>
       </c>
       <c r="E55" s="13">
-        <f>E56*E57</f>
+        <f t="shared" si="19"/>
         <v>13552</v>
       </c>
       <c r="F55" s="13">
-        <f>F56*F57</f>
+        <f t="shared" si="19"/>
         <v>13552</v>
       </c>
       <c r="G55" s="13">
-        <f>G56*G57</f>
+        <f t="shared" si="19"/>
         <v>13552</v>
       </c>
       <c r="H55" s="13">
-        <f>H56*H57</f>
+        <f t="shared" si="19"/>
         <v>17908</v>
       </c>
       <c r="I55" s="13">
-        <f>I56*I57</f>
+        <f t="shared" si="19"/>
         <v>17908</v>
       </c>
       <c r="J55" s="13">
-        <f>J56*J57</f>
+        <f t="shared" si="19"/>
         <v>17908</v>
       </c>
       <c r="K55" s="13">
-        <f>K56*K57</f>
+        <f t="shared" si="19"/>
         <v>26620</v>
       </c>
       <c r="L55" s="13">
-        <f>L56*L57</f>
+        <f t="shared" si="19"/>
         <v>26620</v>
       </c>
       <c r="M55" s="13">
-        <f>M56*M57</f>
+        <f t="shared" si="19"/>
         <v>26620</v>
       </c>
       <c r="N55" s="14">
@@ -3839,7 +3835,7 @@
         <v>201828</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="12.75">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>27</v>
       </c>
@@ -3896,7 +3892,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="12.75">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C18</f>
         <v>Preço de OURO</v>
@@ -3910,43 +3906,43 @@
         <v>484</v>
       </c>
       <c r="D57" s="16">
-        <f t="shared" ref="D57:M57" si="6">C57</f>
+        <f t="shared" ref="D57:M57" si="20">C57</f>
         <v>484</v>
       </c>
       <c r="E57" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>484</v>
       </c>
       <c r="F57" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>484</v>
       </c>
       <c r="G57" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>484</v>
       </c>
       <c r="H57" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>484</v>
       </c>
       <c r="I57" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>484</v>
       </c>
       <c r="J57" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>484</v>
       </c>
       <c r="K57" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>484</v>
       </c>
       <c r="L57" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>484</v>
       </c>
       <c r="M57" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>484</v>
       </c>
       <c r="N57" s="17">
@@ -3954,58 +3950,57 @@
         <v>5808</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="12.75"/>
-    <row r="59" spans="1:14" ht="12.75">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C19</f>
         <v>Vendas de DIAMANTE</v>
       </c>
       <c r="B59" s="13">
-        <f>B60*B61</f>
+        <f t="shared" ref="B59:M59" si="21">B60*B61</f>
         <v>3630</v>
       </c>
       <c r="C59" s="13">
-        <f>C60*C61</f>
+        <f t="shared" si="21"/>
         <v>3630</v>
       </c>
       <c r="D59" s="13">
-        <f>D60*D61</f>
+        <f t="shared" si="21"/>
         <v>3630</v>
       </c>
       <c r="E59" s="13">
-        <f>E60*E61</f>
+        <f t="shared" si="21"/>
         <v>3630</v>
       </c>
       <c r="F59" s="13">
-        <f>F60*F61</f>
+        <f t="shared" si="21"/>
         <v>7260</v>
       </c>
       <c r="G59" s="13">
-        <f>G60*G61</f>
+        <f t="shared" si="21"/>
         <v>7260</v>
       </c>
       <c r="H59" s="13">
-        <f>H60*H61</f>
+        <f t="shared" si="21"/>
         <v>7260</v>
       </c>
       <c r="I59" s="13">
-        <f>I60*I61</f>
+        <f t="shared" si="21"/>
         <v>7260</v>
       </c>
       <c r="J59" s="13">
-        <f>J60*J61</f>
+        <f t="shared" si="21"/>
         <v>13794</v>
       </c>
       <c r="K59" s="13">
-        <f>K60*K61</f>
+        <f t="shared" si="21"/>
         <v>13794</v>
       </c>
       <c r="L59" s="13">
-        <f>L60*L61</f>
+        <f t="shared" si="21"/>
         <v>13794</v>
       </c>
       <c r="M59" s="13">
-        <f>M60*M61</f>
+        <f t="shared" si="21"/>
         <v>13794</v>
       </c>
       <c r="N59" s="14">
@@ -4013,7 +4008,7 @@
         <v>98736</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="12.75">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>27</v>
       </c>
@@ -4070,7 +4065,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="12.75">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C19</f>
         <v>Preço de DIAMANTE</v>
@@ -4084,43 +4079,43 @@
         <v>726</v>
       </c>
       <c r="D61" s="16">
-        <f t="shared" ref="D61:M61" si="7">C61</f>
+        <f t="shared" ref="D61:M61" si="22">C61</f>
         <v>726</v>
       </c>
       <c r="E61" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>726</v>
       </c>
       <c r="F61" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>726</v>
       </c>
       <c r="G61" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>726</v>
       </c>
       <c r="H61" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>726</v>
       </c>
       <c r="I61" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>726</v>
       </c>
       <c r="J61" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>726</v>
       </c>
       <c r="K61" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>726</v>
       </c>
       <c r="L61" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>726</v>
       </c>
       <c r="M61" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>726</v>
       </c>
       <c r="N61" s="17">
@@ -4128,7 +4123,7 @@
         <v>8712</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="12.75">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>24</v>
       </c>
@@ -4172,115 +4167,114 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="12.75">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B65" s="11">
-        <f>B67+B71+B75+B79</f>
+        <f t="shared" ref="B65:N65" si="23">B67+B71+B75+B79</f>
         <v>65751.399999999994</v>
       </c>
       <c r="C65" s="11">
-        <f>C67+C71+C75+C79</f>
+        <f t="shared" si="23"/>
         <v>80392.400000000009</v>
       </c>
       <c r="D65" s="11">
-        <f>D67+D71+D75+D79</f>
+        <f t="shared" si="23"/>
         <v>116462.49999999999</v>
       </c>
       <c r="E65" s="11">
-        <f>E67+E71+E75+E79</f>
+        <f t="shared" si="23"/>
         <v>145478.29999999999</v>
       </c>
       <c r="F65" s="11">
-        <f>F67+F71+F75+F79</f>
+        <f t="shared" si="23"/>
         <v>172630.69999999998</v>
       </c>
       <c r="G65" s="11">
-        <f>G67+G71+G75+G79</f>
+        <f t="shared" si="23"/>
         <v>194725.3</v>
       </c>
       <c r="H65" s="11">
-        <f>H67+H71+H75+H79</f>
+        <f t="shared" si="23"/>
         <v>223741.09999999998</v>
       </c>
       <c r="I65" s="11">
-        <f>I67+I71+I75+I79</f>
+        <f t="shared" si="23"/>
         <v>245436.39999999997</v>
       </c>
       <c r="J65" s="11">
-        <f>J67+J71+J75+J79</f>
+        <f t="shared" si="23"/>
         <v>278711.39999999997</v>
       </c>
       <c r="K65" s="11">
-        <f>K67+K71+K75+K79</f>
+        <f t="shared" si="23"/>
         <v>314648.40000000002</v>
       </c>
       <c r="L65" s="11">
-        <f>L67+L71+L75+L79</f>
+        <f t="shared" si="23"/>
         <v>336743</v>
       </c>
       <c r="M65" s="11">
-        <f>M67+M71+M75+M79</f>
+        <f t="shared" si="23"/>
         <v>358305.2</v>
       </c>
       <c r="N65" s="11">
-        <f>N67+N71+N75+N79</f>
+        <f t="shared" si="23"/>
         <v>2533026.0999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="12.75"/>
-    <row r="67" spans="1:14" ht="12.75">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C16</f>
         <v>Vendas de BRONZE</v>
       </c>
       <c r="B67" s="13">
-        <f>B68*B69</f>
+        <f t="shared" ref="B67:M67" si="24">B68*B69</f>
         <v>7453.5999999999995</v>
       </c>
       <c r="C67" s="13">
-        <f>C68*C69</f>
+        <f t="shared" si="24"/>
         <v>14641</v>
       </c>
       <c r="D67" s="13">
-        <f>D68*D69</f>
+        <f t="shared" si="24"/>
         <v>21961.5</v>
       </c>
       <c r="E67" s="13">
-        <f>E68*E69</f>
+        <f t="shared" si="24"/>
         <v>29148.899999999998</v>
       </c>
       <c r="F67" s="13">
-        <f>F68*F69</f>
+        <f t="shared" si="24"/>
         <v>36336.299999999996</v>
       </c>
       <c r="G67" s="13">
-        <f>G68*G69</f>
+        <f t="shared" si="24"/>
         <v>43789.9</v>
       </c>
       <c r="H67" s="13">
-        <f>H68*H69</f>
+        <f t="shared" si="24"/>
         <v>50977.299999999996</v>
       </c>
       <c r="I67" s="13">
-        <f>I68*I69</f>
+        <f t="shared" si="24"/>
         <v>58297.799999999996</v>
       </c>
       <c r="J67" s="13">
-        <f>J68*J69</f>
+        <f t="shared" si="24"/>
         <v>65485.2</v>
       </c>
       <c r="K67" s="13">
-        <f>K68*K69</f>
+        <f t="shared" si="24"/>
         <v>72672.599999999991</v>
       </c>
       <c r="L67" s="13">
-        <f>L68*L69</f>
+        <f t="shared" si="24"/>
         <v>80126.2</v>
       </c>
       <c r="M67" s="13">
-        <f>M68*M69</f>
+        <f t="shared" si="24"/>
         <v>87313.599999999991</v>
       </c>
       <c r="N67" s="14">
@@ -4288,7 +4282,7 @@
         <v>568203.9</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="12.75">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>27</v>
       </c>
@@ -4345,7 +4339,7 @@
         <v>4269</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="12.75">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C16</f>
         <v>Preço de BRONZE</v>
@@ -4359,43 +4353,43 @@
         <v>133.1</v>
       </c>
       <c r="D69" s="16">
-        <f t="shared" ref="D69:M69" si="8">C69</f>
+        <f t="shared" ref="D69:M69" si="25">C69</f>
         <v>133.1</v>
       </c>
       <c r="E69" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>133.1</v>
       </c>
       <c r="F69" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>133.1</v>
       </c>
       <c r="G69" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>133.1</v>
       </c>
       <c r="H69" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>133.1</v>
       </c>
       <c r="I69" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>133.1</v>
       </c>
       <c r="J69" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>133.1</v>
       </c>
       <c r="K69" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>133.1</v>
       </c>
       <c r="L69" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>133.1</v>
       </c>
       <c r="M69" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="25"/>
         <v>133.1</v>
       </c>
       <c r="N69" s="17">
@@ -4403,58 +4397,57 @@
         <v>1597.1999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="12.75"/>
-    <row r="71" spans="1:14" ht="12.75">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C17</f>
         <v>Vendas de PRATA</v>
       </c>
       <c r="B71" s="13">
-        <f>B72*B73</f>
+        <f t="shared" ref="B71:M71" si="26">B72*B73</f>
         <v>36469.4</v>
       </c>
       <c r="C71" s="13">
-        <f>C72*C73</f>
+        <f t="shared" si="26"/>
         <v>43923</v>
       </c>
       <c r="D71" s="13">
-        <f>D72*D73</f>
+        <f t="shared" si="26"/>
         <v>72672.599999999991</v>
       </c>
       <c r="E71" s="13">
-        <f>E72*E73</f>
+        <f t="shared" si="26"/>
         <v>87579.8</v>
       </c>
       <c r="F71" s="13">
-        <f>F72*F73</f>
+        <f t="shared" si="26"/>
         <v>101954.59999999999</v>
       </c>
       <c r="G71" s="13">
-        <f>G72*G73</f>
+        <f t="shared" si="26"/>
         <v>116595.59999999999</v>
       </c>
       <c r="H71" s="13">
-        <f>H72*H73</f>
+        <f t="shared" si="26"/>
         <v>130970.4</v>
       </c>
       <c r="I71" s="13">
-        <f>I72*I73</f>
+        <f t="shared" si="26"/>
         <v>145345.19999999998</v>
       </c>
       <c r="J71" s="13">
-        <f>J72*J73</f>
+        <f t="shared" si="26"/>
         <v>160252.4</v>
       </c>
       <c r="K71" s="13">
-        <f>K72*K73</f>
+        <f t="shared" si="26"/>
         <v>174627.19999999998</v>
       </c>
       <c r="L71" s="13">
-        <f>L72*L73</f>
+        <f t="shared" si="26"/>
         <v>189268.19999999998</v>
       </c>
       <c r="M71" s="13">
-        <f>M72*M73</f>
+        <f t="shared" si="26"/>
         <v>203643</v>
       </c>
       <c r="N71" s="14">
@@ -4462,7 +4455,7 @@
         <v>1463301.4</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="12.75">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>27</v>
       </c>
@@ -4519,7 +4512,7 @@
         <v>5497</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="12.75">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C17</f>
         <v>Preço de PRATA</v>
@@ -4533,43 +4526,43 @@
         <v>266.2</v>
       </c>
       <c r="D73" s="16">
-        <f t="shared" ref="D73:M73" si="9">C73</f>
+        <f t="shared" ref="D73:M73" si="27">C73</f>
         <v>266.2</v>
       </c>
       <c r="E73" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>266.2</v>
       </c>
       <c r="F73" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>266.2</v>
       </c>
       <c r="G73" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>266.2</v>
       </c>
       <c r="H73" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>266.2</v>
       </c>
       <c r="I73" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>266.2</v>
       </c>
       <c r="J73" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>266.2</v>
       </c>
       <c r="K73" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>266.2</v>
       </c>
       <c r="L73" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>266.2</v>
       </c>
       <c r="M73" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>266.2</v>
       </c>
       <c r="N73" s="17">
@@ -4577,58 +4570,57 @@
         <v>3194.3999999999992</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="12.75"/>
-    <row r="75" spans="1:14" ht="12.75">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C18</f>
         <v>Vendas de OURO</v>
       </c>
       <c r="B75" s="13">
-        <f>B76*B77</f>
+        <f t="shared" ref="B75:M75" si="28">B76*B77</f>
         <v>15439.599999999999</v>
       </c>
       <c r="C75" s="13">
-        <f>C76*C77</f>
+        <f t="shared" si="28"/>
         <v>15439.599999999999</v>
       </c>
       <c r="D75" s="13">
-        <f>D76*D77</f>
+        <f t="shared" si="28"/>
         <v>15439.599999999999</v>
       </c>
       <c r="E75" s="13">
-        <f>E76*E77</f>
+        <f t="shared" si="28"/>
         <v>22360.799999999999</v>
       </c>
       <c r="F75" s="13">
-        <f>F76*F77</f>
+        <f t="shared" si="28"/>
         <v>22360.799999999999</v>
       </c>
       <c r="G75" s="13">
-        <f>G76*G77</f>
+        <f t="shared" si="28"/>
         <v>22360.799999999999</v>
       </c>
       <c r="H75" s="13">
-        <f>H76*H77</f>
+        <f t="shared" si="28"/>
         <v>29814.399999999998</v>
       </c>
       <c r="I75" s="13">
-        <f>I76*I77</f>
+        <f t="shared" si="28"/>
         <v>29814.399999999998</v>
       </c>
       <c r="J75" s="13">
-        <f>J76*J77</f>
+        <f t="shared" si="28"/>
         <v>29814.399999999998</v>
       </c>
       <c r="K75" s="13">
-        <f>K76*K77</f>
+        <f t="shared" si="28"/>
         <v>44189.2</v>
       </c>
       <c r="L75" s="13">
-        <f>L76*L77</f>
+        <f t="shared" si="28"/>
         <v>44189.2</v>
       </c>
       <c r="M75" s="13">
-        <f>M76*M77</f>
+        <f t="shared" si="28"/>
         <v>44189.2</v>
       </c>
       <c r="N75" s="14">
@@ -4636,7 +4628,7 @@
         <v>335412</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="12.75">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>27</v>
       </c>
@@ -4693,7 +4685,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="12.75">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C18</f>
         <v>Preço de OURO</v>
@@ -4707,43 +4699,43 @@
         <v>532.4</v>
       </c>
       <c r="D77" s="16">
-        <f t="shared" ref="D77:M77" si="10">C77</f>
+        <f t="shared" ref="D77:M77" si="29">C77</f>
         <v>532.4</v>
       </c>
       <c r="E77" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>532.4</v>
       </c>
       <c r="F77" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>532.4</v>
       </c>
       <c r="G77" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>532.4</v>
       </c>
       <c r="H77" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>532.4</v>
       </c>
       <c r="I77" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>532.4</v>
       </c>
       <c r="J77" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>532.4</v>
       </c>
       <c r="K77" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>532.4</v>
       </c>
       <c r="L77" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>532.4</v>
       </c>
       <c r="M77" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>532.4</v>
       </c>
       <c r="N77" s="17">
@@ -4751,58 +4743,57 @@
         <v>6388.7999999999984</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="12.75"/>
-    <row r="79" spans="1:14" ht="12.75">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C19</f>
         <v>Vendas de DIAMANTE</v>
       </c>
       <c r="B79" s="13">
-        <f>B80*B81</f>
+        <f t="shared" ref="B79:M79" si="30">B80*B81</f>
         <v>6388.8</v>
       </c>
       <c r="C79" s="13">
-        <f>C80*C81</f>
+        <f t="shared" si="30"/>
         <v>6388.8</v>
       </c>
       <c r="D79" s="13">
-        <f>D80*D81</f>
+        <f t="shared" si="30"/>
         <v>6388.8</v>
       </c>
       <c r="E79" s="13">
-        <f>E80*E81</f>
+        <f t="shared" si="30"/>
         <v>6388.8</v>
       </c>
       <c r="F79" s="13">
-        <f>F80*F81</f>
+        <f t="shared" si="30"/>
         <v>11979</v>
       </c>
       <c r="G79" s="13">
-        <f>G80*G81</f>
+        <f t="shared" si="30"/>
         <v>11979</v>
       </c>
       <c r="H79" s="13">
-        <f>H80*H81</f>
+        <f t="shared" si="30"/>
         <v>11979</v>
       </c>
       <c r="I79" s="13">
-        <f>I80*I81</f>
+        <f t="shared" si="30"/>
         <v>11979</v>
       </c>
       <c r="J79" s="13">
-        <f>J80*J81</f>
+        <f t="shared" si="30"/>
         <v>23159.4</v>
       </c>
       <c r="K79" s="13">
-        <f>K80*K81</f>
+        <f t="shared" si="30"/>
         <v>23159.4</v>
       </c>
       <c r="L79" s="13">
-        <f>L80*L81</f>
+        <f t="shared" si="30"/>
         <v>23159.4</v>
       </c>
       <c r="M79" s="13">
-        <f>M80*M81</f>
+        <f t="shared" si="30"/>
         <v>23159.4</v>
       </c>
       <c r="N79" s="14">
@@ -4810,7 +4801,7 @@
         <v>166108.79999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="12.75">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>27</v>
       </c>
@@ -4867,7 +4858,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="12.75">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C19</f>
         <v>Preço de DIAMANTE</v>
@@ -4881,43 +4872,43 @@
         <v>798.6</v>
       </c>
       <c r="D81" s="16">
-        <f t="shared" ref="D81:M81" si="11">C81</f>
+        <f t="shared" ref="D81:M81" si="31">C81</f>
         <v>798.6</v>
       </c>
       <c r="E81" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>798.6</v>
       </c>
       <c r="F81" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>798.6</v>
       </c>
       <c r="G81" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>798.6</v>
       </c>
       <c r="H81" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>798.6</v>
       </c>
       <c r="I81" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>798.6</v>
       </c>
       <c r="J81" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>798.6</v>
       </c>
       <c r="K81" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>798.6</v>
       </c>
       <c r="L81" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>798.6</v>
       </c>
       <c r="M81" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>798.6</v>
       </c>
       <c r="N81" s="17">
@@ -4925,7 +4916,7 @@
         <v>9583.2000000000025</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="12.75">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>24</v>
       </c>
@@ -4969,115 +4960,114 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="12.75">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B85" s="11">
-        <f>B87+B91+B95+B99</f>
+        <f t="shared" ref="B85:N85" si="32">B87+B91+B95+B99</f>
         <v>123862.86</v>
       </c>
       <c r="C85" s="11">
-        <f>C87+C91+C95+C99</f>
+        <f t="shared" si="32"/>
         <v>151241.53</v>
       </c>
       <c r="D85" s="11">
-        <f>D87+D91+D95+D99</f>
+        <f t="shared" si="32"/>
         <v>218882.94999999998</v>
       </c>
       <c r="E85" s="11">
-        <f>E87+E91+E95+E99</f>
+        <f t="shared" si="32"/>
         <v>273054.64999999997</v>
       </c>
       <c r="F85" s="11">
-        <f>F87+F91+F95+F99</f>
+        <f t="shared" si="32"/>
         <v>324005.33</v>
       </c>
       <c r="G85" s="11">
-        <f>G87+G91+G95+G99</f>
+        <f t="shared" si="32"/>
         <v>365146.54000000004</v>
       </c>
       <c r="H85" s="11">
-        <f>H87+H91+H95+H99</f>
+        <f t="shared" si="32"/>
         <v>419611.06</v>
       </c>
       <c r="I85" s="11">
-        <f>I87+I91+I95+I99</f>
+        <f t="shared" si="32"/>
         <v>460166.63</v>
       </c>
       <c r="J85" s="11">
-        <f>J87+J91+J95+J99</f>
+        <f t="shared" si="32"/>
         <v>522537.29</v>
       </c>
       <c r="K85" s="11">
-        <f>K87+K91+K95+K99</f>
+        <f t="shared" si="32"/>
         <v>589885.89</v>
       </c>
       <c r="L85" s="11">
-        <f>L87+L91+L95+L99</f>
+        <f t="shared" si="32"/>
         <v>631027.1</v>
       </c>
       <c r="M85" s="11">
-        <f>M87+M91+M95+M99</f>
+        <f t="shared" si="32"/>
         <v>671436.26</v>
       </c>
       <c r="N85" s="11">
-        <f>N87+N91+N95+N99</f>
+        <f t="shared" si="32"/>
         <v>4750858.0899999989</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="12.75"/>
-    <row r="87" spans="1:14" ht="12.75">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C16</f>
         <v>Vendas de BRONZE</v>
       </c>
       <c r="B87" s="13">
-        <f>B88*B89</f>
+        <f t="shared" ref="B87:M87" si="33">B88*B89</f>
         <v>14055.36</v>
       </c>
       <c r="C87" s="13">
-        <f>C88*C89</f>
+        <f t="shared" si="33"/>
         <v>27378.67</v>
       </c>
       <c r="D87" s="13">
-        <f>D88*D89</f>
+        <f t="shared" si="33"/>
         <v>41141.21</v>
       </c>
       <c r="E87" s="13">
-        <f>E88*E89</f>
+        <f t="shared" si="33"/>
         <v>54610.93</v>
       </c>
       <c r="F87" s="13">
-        <f>F88*F89</f>
+        <f t="shared" si="33"/>
         <v>68080.649999999994</v>
       </c>
       <c r="G87" s="13">
-        <f>G88*G89</f>
+        <f t="shared" si="33"/>
         <v>81989.599999999991</v>
       </c>
       <c r="H87" s="13">
-        <f>H88*H89</f>
+        <f t="shared" si="33"/>
         <v>95459.319999999992</v>
       </c>
       <c r="I87" s="13">
-        <f>I88*I89</f>
+        <f t="shared" si="33"/>
         <v>109075.45</v>
       </c>
       <c r="J87" s="13">
-        <f>J88*J89</f>
+        <f t="shared" si="33"/>
         <v>122545.17</v>
       </c>
       <c r="K87" s="13">
-        <f>K88*K89</f>
+        <f t="shared" si="33"/>
         <v>136014.88999999998</v>
       </c>
       <c r="L87" s="13">
-        <f>L88*L89</f>
+        <f t="shared" si="33"/>
         <v>149923.84</v>
       </c>
       <c r="M87" s="13">
-        <f>M88*M89</f>
+        <f t="shared" si="33"/>
         <v>163393.56</v>
       </c>
       <c r="N87" s="14">
@@ -5085,7 +5075,7 @@
         <v>1063668.6499999999</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="12.75">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>27</v>
       </c>
@@ -5142,7 +5132,7 @@
         <v>7265</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="12.75">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C16</f>
         <v>Preço de BRONZE</v>
@@ -5156,43 +5146,43 @@
         <v>146.41</v>
       </c>
       <c r="D89" s="16">
-        <f t="shared" ref="D89:M89" si="12">C89</f>
+        <f t="shared" ref="D89:M89" si="34">C89</f>
         <v>146.41</v>
       </c>
       <c r="E89" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="34"/>
         <v>146.41</v>
       </c>
       <c r="F89" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="34"/>
         <v>146.41</v>
       </c>
       <c r="G89" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="34"/>
         <v>146.41</v>
       </c>
       <c r="H89" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="34"/>
         <v>146.41</v>
       </c>
       <c r="I89" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="34"/>
         <v>146.41</v>
       </c>
       <c r="J89" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="34"/>
         <v>146.41</v>
       </c>
       <c r="K89" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="34"/>
         <v>146.41</v>
       </c>
       <c r="L89" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="34"/>
         <v>146.41</v>
       </c>
       <c r="M89" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="34"/>
         <v>146.41</v>
       </c>
       <c r="N89" s="17">
@@ -5200,58 +5190,57 @@
         <v>1756.9200000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="12.75"/>
-    <row r="91" spans="1:14" ht="12.75">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C17</f>
         <v>Vendas de PRATA</v>
       </c>
       <c r="B91" s="13">
-        <f>B92*B93</f>
+        <f t="shared" ref="B91:M91" si="35">B92*B93</f>
         <v>68227.06</v>
       </c>
       <c r="C91" s="13">
-        <f>C92*C93</f>
+        <f t="shared" si="35"/>
         <v>82282.42</v>
       </c>
       <c r="D91" s="13">
-        <f>D92*D93</f>
+        <f t="shared" si="35"/>
         <v>136161.29999999999</v>
       </c>
       <c r="E91" s="13">
-        <f>E92*E93</f>
+        <f t="shared" si="35"/>
         <v>163979.19999999998</v>
       </c>
       <c r="F91" s="13">
-        <f>F92*F93</f>
+        <f t="shared" si="35"/>
         <v>190918.63999999998</v>
       </c>
       <c r="G91" s="13">
-        <f>G92*G93</f>
+        <f t="shared" si="35"/>
         <v>218150.9</v>
       </c>
       <c r="H91" s="13">
-        <f>H92*H93</f>
+        <f t="shared" si="35"/>
         <v>245090.34</v>
       </c>
       <c r="I91" s="13">
-        <f>I92*I93</f>
+        <f t="shared" si="35"/>
         <v>272029.77999999997</v>
       </c>
       <c r="J91" s="13">
-        <f>J92*J93</f>
+        <f t="shared" si="35"/>
         <v>299847.67999999999</v>
       </c>
       <c r="K91" s="13">
-        <f>K92*K93</f>
+        <f t="shared" si="35"/>
         <v>326787.12</v>
       </c>
       <c r="L91" s="13">
-        <f>L92*L93</f>
+        <f t="shared" si="35"/>
         <v>354019.38</v>
       </c>
       <c r="M91" s="13">
-        <f>M92*M93</f>
+        <f t="shared" si="35"/>
         <v>380958.82</v>
       </c>
       <c r="N91" s="14">
@@ -5259,7 +5248,7 @@
         <v>2738452.6399999997</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="12.75">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>27</v>
       </c>
@@ -5316,7 +5305,7 @@
         <v>9352</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="12.75">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C17</f>
         <v>Preço de PRATA</v>
@@ -5330,43 +5319,43 @@
         <v>292.82</v>
       </c>
       <c r="D93" s="16">
-        <f t="shared" ref="D93:M93" si="13">C93</f>
+        <f t="shared" ref="D93:M93" si="36">C93</f>
         <v>292.82</v>
       </c>
       <c r="E93" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>292.82</v>
       </c>
       <c r="F93" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>292.82</v>
       </c>
       <c r="G93" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>292.82</v>
       </c>
       <c r="H93" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>292.82</v>
       </c>
       <c r="I93" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>292.82</v>
       </c>
       <c r="J93" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>292.82</v>
       </c>
       <c r="K93" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>292.82</v>
       </c>
       <c r="L93" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>292.82</v>
       </c>
       <c r="M93" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="36"/>
         <v>292.82</v>
       </c>
       <c r="N93" s="17">
@@ -5374,58 +5363,57 @@
         <v>3513.8400000000006</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="12.75"/>
-    <row r="95" spans="1:14" ht="12.75">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C18</f>
         <v>Vendas de OURO</v>
       </c>
       <c r="B95" s="13">
-        <f>B96*B97</f>
+        <f t="shared" ref="B95:M95" si="37">B96*B97</f>
         <v>29282</v>
       </c>
       <c r="C95" s="13">
-        <f>C96*C97</f>
+        <f t="shared" si="37"/>
         <v>29282</v>
       </c>
       <c r="D95" s="13">
-        <f>D96*D97</f>
+        <f t="shared" si="37"/>
         <v>29282</v>
       </c>
       <c r="E95" s="13">
-        <f>E96*E97</f>
+        <f t="shared" si="37"/>
         <v>42166.080000000002</v>
       </c>
       <c r="F95" s="13">
-        <f>F96*F97</f>
+        <f t="shared" si="37"/>
         <v>42166.080000000002</v>
       </c>
       <c r="G95" s="13">
-        <f>G96*G97</f>
+        <f t="shared" si="37"/>
         <v>42166.080000000002</v>
       </c>
       <c r="H95" s="13">
-        <f>H96*H97</f>
+        <f t="shared" si="37"/>
         <v>56221.440000000002</v>
       </c>
       <c r="I95" s="13">
-        <f>I96*I97</f>
+        <f t="shared" si="37"/>
         <v>56221.440000000002</v>
       </c>
       <c r="J95" s="13">
-        <f>J96*J97</f>
+        <f t="shared" si="37"/>
         <v>56221.440000000002</v>
       </c>
       <c r="K95" s="13">
-        <f>K96*K97</f>
+        <f t="shared" si="37"/>
         <v>83160.88</v>
       </c>
       <c r="L95" s="13">
-        <f>L96*L97</f>
+        <f t="shared" si="37"/>
         <v>83160.88</v>
       </c>
       <c r="M95" s="13">
-        <f>M96*M97</f>
+        <f t="shared" si="37"/>
         <v>83160.88</v>
       </c>
       <c r="N95" s="14">
@@ -5433,7 +5421,7 @@
         <v>632491.20000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="12.75">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>27</v>
       </c>
@@ -5490,7 +5478,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="12.75">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C18</f>
         <v>Preço de OURO</v>
@@ -5504,43 +5492,43 @@
         <v>585.64</v>
       </c>
       <c r="D97" s="16">
-        <f t="shared" ref="D97:M97" si="14">C97</f>
+        <f t="shared" ref="D97:M97" si="38">C97</f>
         <v>585.64</v>
       </c>
       <c r="E97" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>585.64</v>
       </c>
       <c r="F97" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>585.64</v>
       </c>
       <c r="G97" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>585.64</v>
       </c>
       <c r="H97" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>585.64</v>
       </c>
       <c r="I97" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>585.64</v>
       </c>
       <c r="J97" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>585.64</v>
       </c>
       <c r="K97" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>585.64</v>
       </c>
       <c r="L97" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>585.64</v>
       </c>
       <c r="M97" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>585.64</v>
       </c>
       <c r="N97" s="17">
@@ -5548,58 +5536,57 @@
         <v>7027.6800000000012</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="12.75"/>
-    <row r="99" spans="1:14" ht="12.75">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="str">
         <f>"Vendas de "&amp;InformacoesBasicas!C19</f>
         <v>Vendas de DIAMANTE</v>
       </c>
       <c r="B99" s="13">
-        <f>B100*B101</f>
+        <f t="shared" ref="B99:M99" si="39">B100*B101</f>
         <v>12298.44</v>
       </c>
       <c r="C99" s="13">
-        <f>C100*C101</f>
+        <f t="shared" si="39"/>
         <v>12298.44</v>
       </c>
       <c r="D99" s="13">
-        <f>D100*D101</f>
+        <f t="shared" si="39"/>
         <v>12298.44</v>
       </c>
       <c r="E99" s="13">
-        <f>E100*E101</f>
+        <f t="shared" si="39"/>
         <v>12298.44</v>
       </c>
       <c r="F99" s="13">
-        <f>F100*F101</f>
+        <f t="shared" si="39"/>
         <v>22839.96</v>
       </c>
       <c r="G99" s="13">
-        <f>G100*G101</f>
+        <f t="shared" si="39"/>
         <v>22839.96</v>
       </c>
       <c r="H99" s="13">
-        <f>H100*H101</f>
+        <f t="shared" si="39"/>
         <v>22839.96</v>
       </c>
       <c r="I99" s="13">
-        <f>I100*I101</f>
+        <f t="shared" si="39"/>
         <v>22839.96</v>
       </c>
       <c r="J99" s="13">
-        <f>J100*J101</f>
+        <f t="shared" si="39"/>
         <v>43923</v>
       </c>
       <c r="K99" s="13">
-        <f>K100*K101</f>
+        <f t="shared" si="39"/>
         <v>43923</v>
       </c>
       <c r="L99" s="13">
-        <f>L100*L101</f>
+        <f t="shared" si="39"/>
         <v>43923</v>
       </c>
       <c r="M99" s="13">
-        <f>M100*M101</f>
+        <f t="shared" si="39"/>
         <v>43923</v>
       </c>
       <c r="N99" s="14">
@@ -5607,7 +5594,7 @@
         <v>316245.59999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="12.75">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>27</v>
       </c>
@@ -5664,7 +5651,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="12.75">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="str">
         <f>"Preço de "&amp;InformacoesBasicas!C19</f>
         <v>Preço de DIAMANTE</v>
@@ -5678,43 +5665,43 @@
         <v>878.46</v>
       </c>
       <c r="D101" s="16">
-        <f t="shared" ref="D101:M101" si="15">C101</f>
+        <f t="shared" ref="D101:M101" si="40">C101</f>
         <v>878.46</v>
       </c>
       <c r="E101" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="40"/>
         <v>878.46</v>
       </c>
       <c r="F101" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="40"/>
         <v>878.46</v>
       </c>
       <c r="G101" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="40"/>
         <v>878.46</v>
       </c>
       <c r="H101" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="40"/>
         <v>878.46</v>
       </c>
       <c r="I101" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="40"/>
         <v>878.46</v>
       </c>
       <c r="J101" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="40"/>
         <v>878.46</v>
       </c>
       <c r="K101" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="40"/>
         <v>878.46</v>
       </c>
       <c r="L101" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="40"/>
         <v>878.46</v>
       </c>
       <c r="M101" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="40"/>
         <v>878.46</v>
       </c>
       <c r="N101" s="17">
@@ -5722,13 +5709,11 @@
         <v>10541.52</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M105" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="1048575" ht="12.75"/>
-    <row r="1048576" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5740,23 +5725,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="5" customWidth="1"/>
-    <col min="3" max="1024" width="9.140625" style="5"/>
+    <col min="1" max="1" width="46.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="5" customWidth="1"/>
+    <col min="3" max="1024" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.95">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo Unitário Médio de Aquisição do Fornecedor de ",IF(InformacoesBasicas!B10=2,"Custo Unitário de Prestação de cada Serviço de ",IF(InformacoesBasicas!B10=3,"Custo da matéria-prima para Fabricação de cada ","Custo de")))&amp;InformacoesBasicas!C16</f>
         <v>Custo Unitário de Prestação de cada Serviço de BRONZE</v>
@@ -5765,7 +5748,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo Médio de Aquisição do Fornecedor de ",IF(InformacoesBasicas!B10=2,"Custo Unitário de Prestação de cada Serviço de ",IF(InformacoesBasicas!B10=3,"Custo da matéria-prima para Fabricação de cada ","Custo de")))&amp;InformacoesBasicas!C17</f>
         <v>Custo Unitário de Prestação de cada Serviço de PRATA</v>
@@ -5774,7 +5757,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo Médio de Aquisição do Fornecedor de ",IF(InformacoesBasicas!B10=2,"Custo Unitário de Prestação de cada Serviço de ",IF(InformacoesBasicas!B10=3,"Custo da matéria-prima para Fabricação de cada ","Custo de")))&amp;InformacoesBasicas!C18</f>
         <v>Custo Unitário de Prestação de cada Serviço de OURO</v>
@@ -5783,7 +5766,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo Médio de Aquisição do Fornecedor de ",IF(InformacoesBasicas!B10=2,"Custo Unitário de Prestação de cada Serviço de ",IF(InformacoesBasicas!B10=3,"Custo da matéria-prima para Fabricação de cada ","Custo de")))&amp;InformacoesBasicas!C19</f>
         <v>Custo Unitário de Prestação de cada Serviço de DIAMANTE</v>
@@ -5803,25 +5786,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A58" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="11.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="5" customWidth="1"/>
-    <col min="15" max="1024" width="9.140625" style="5"/>
+    <col min="15" max="1024" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.95">
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -5865,117 +5846,117 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="11">
-        <f>B7+B11+B15+B19</f>
+        <f t="shared" ref="B5:N5" si="0">B7+B11+B15+B19</f>
         <v>11500</v>
       </c>
       <c r="C5" s="11">
-        <f>C7+C11+C15+C19</f>
+        <f t="shared" si="0"/>
         <v>14200</v>
       </c>
       <c r="D5" s="11">
-        <f>D7+D11+D15+D19</f>
+        <f t="shared" si="0"/>
         <v>20800</v>
       </c>
       <c r="E5" s="11">
-        <f>E7+E11+E15+E19</f>
+        <f t="shared" si="0"/>
         <v>26200</v>
       </c>
       <c r="F5" s="11">
-        <f>F7+F11+F15+F19</f>
+        <f t="shared" si="0"/>
         <v>31400</v>
       </c>
       <c r="G5" s="11">
-        <f>G7+G11+G15+G19</f>
+        <f t="shared" si="0"/>
         <v>35400</v>
       </c>
       <c r="H5" s="11">
-        <f>H7+H11+H15+H19</f>
+        <f t="shared" si="0"/>
         <v>40800</v>
       </c>
       <c r="I5" s="11">
-        <f>I7+I11+I15+I19</f>
+        <f t="shared" si="0"/>
         <v>44800</v>
       </c>
       <c r="J5" s="11">
-        <f>J7+J11+J15+J19</f>
+        <f t="shared" si="0"/>
         <v>50800</v>
       </c>
       <c r="K5" s="11">
-        <f>K7+K11+K15+K19</f>
+        <f t="shared" si="0"/>
         <v>57600</v>
       </c>
       <c r="L5" s="11">
-        <f>L7+L11+L15+L19</f>
+        <f t="shared" si="0"/>
         <v>61600</v>
       </c>
       <c r="M5" s="11">
-        <f>M7+M11+M15+M19</f>
+        <f t="shared" si="0"/>
         <v>65600</v>
       </c>
       <c r="N5" s="11">
-        <f>N7+N11+N15+N19</f>
+        <f t="shared" si="0"/>
         <v>460700</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C16</f>
         <v>Custo Total de BRONZE</v>
       </c>
       <c r="B7" s="13">
-        <f>B8*B9</f>
+        <f t="shared" ref="B7:M7" si="1">B8*B9</f>
         <v>1400</v>
       </c>
       <c r="C7" s="13">
-        <f>C8*C9</f>
+        <f t="shared" si="1"/>
         <v>2800</v>
       </c>
       <c r="D7" s="13">
-        <f>D8*D9</f>
+        <f t="shared" si="1"/>
         <v>4200</v>
       </c>
       <c r="E7" s="13">
-        <f>E8*E9</f>
+        <f t="shared" si="1"/>
         <v>5600</v>
       </c>
       <c r="F7" s="13">
-        <f>F8*F9</f>
+        <f t="shared" si="1"/>
         <v>7000</v>
       </c>
       <c r="G7" s="13">
-        <f>G8*G9</f>
+        <f t="shared" si="1"/>
         <v>8400</v>
       </c>
       <c r="H7" s="13">
-        <f>H8*H9</f>
+        <f t="shared" si="1"/>
         <v>9800</v>
       </c>
       <c r="I7" s="13">
-        <f>I8*I9</f>
+        <f t="shared" si="1"/>
         <v>11200</v>
       </c>
       <c r="J7" s="13">
-        <f>J8*J9</f>
+        <f t="shared" si="1"/>
         <v>12600</v>
       </c>
       <c r="K7" s="13">
-        <f>K8*K9</f>
+        <f t="shared" si="1"/>
         <v>14000</v>
       </c>
       <c r="L7" s="13">
-        <f>L8*L9</f>
+        <f t="shared" si="1"/>
         <v>15400</v>
       </c>
       <c r="M7" s="13">
-        <f>M8*M9</f>
+        <f t="shared" si="1"/>
         <v>16800</v>
       </c>
       <c r="N7" s="14">
@@ -5983,7 +5964,7 @@
         <v>109200</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="12.75">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C16</f>
         <v>Custo de Prestação de Serviço de BRONZE</v>
@@ -5993,47 +5974,47 @@
         <v>70</v>
       </c>
       <c r="C8" s="18">
-        <f>$B8</f>
+        <f t="shared" ref="C8:M8" si="2">$B8</f>
         <v>70</v>
       </c>
       <c r="D8" s="18">
-        <f>$B8</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="E8" s="18">
-        <f>$B8</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="F8" s="18">
-        <f>$B8</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="G8" s="18">
-        <f>$B8</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="H8" s="18">
-        <f>$B8</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="I8" s="18">
-        <f>$B8</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="J8" s="18">
-        <f>$B8</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K8" s="18">
-        <f>$B8</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="L8" s="18">
-        <f>$B8</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="M8" s="18">
-        <f>$B8</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="N8" s="17">
@@ -6041,7 +6022,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -6098,57 +6079,57 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C17</f>
         <v>Custo Total de PRATA</v>
       </c>
       <c r="B11" s="13">
-        <f>B12*B13</f>
+        <f t="shared" ref="B11:M11" si="3">B12*B13</f>
         <v>6500</v>
       </c>
       <c r="C11" s="13">
-        <f>C12*C13</f>
+        <f t="shared" si="3"/>
         <v>7800</v>
       </c>
       <c r="D11" s="13">
-        <f>D12*D13</f>
+        <f t="shared" si="3"/>
         <v>13000</v>
       </c>
       <c r="E11" s="13">
-        <f>E12*E13</f>
+        <f t="shared" si="3"/>
         <v>15600</v>
       </c>
       <c r="F11" s="13">
-        <f>F12*F13</f>
+        <f t="shared" si="3"/>
         <v>18200</v>
       </c>
       <c r="G11" s="13">
-        <f>G12*G13</f>
+        <f t="shared" si="3"/>
         <v>20800</v>
       </c>
       <c r="H11" s="13">
-        <f>H12*H13</f>
+        <f t="shared" si="3"/>
         <v>23400</v>
       </c>
       <c r="I11" s="13">
-        <f>I12*I13</f>
+        <f t="shared" si="3"/>
         <v>26000</v>
       </c>
       <c r="J11" s="13">
-        <f>J12*J13</f>
+        <f t="shared" si="3"/>
         <v>28600</v>
       </c>
       <c r="K11" s="13">
-        <f>K12*K13</f>
+        <f t="shared" si="3"/>
         <v>31200</v>
       </c>
       <c r="L11" s="13">
-        <f>L12*L13</f>
+        <f t="shared" si="3"/>
         <v>33800</v>
       </c>
       <c r="M11" s="13">
-        <f>M12*M13</f>
+        <f t="shared" si="3"/>
         <v>36400</v>
       </c>
       <c r="N11" s="14">
@@ -6156,7 +6137,7 @@
         <v>261300</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C17</f>
         <v>Custo de Prestação de Serviço de PRATA</v>
@@ -6166,47 +6147,47 @@
         <v>130</v>
       </c>
       <c r="C12" s="18">
-        <f>$B12</f>
+        <f t="shared" ref="C12:M12" si="4">$B12</f>
         <v>130</v>
       </c>
       <c r="D12" s="18">
-        <f>$B12</f>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="E12" s="18">
-        <f>$B12</f>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="F12" s="18">
-        <f>$B12</f>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="G12" s="18">
-        <f>$B12</f>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="H12" s="18">
-        <f>$B12</f>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="I12" s="18">
-        <f>$B12</f>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="J12" s="18">
-        <f>$B12</f>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="K12" s="18">
-        <f>$B12</f>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="L12" s="18">
-        <f>$B12</f>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="M12" s="18">
-        <f>$B12</f>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="N12" s="17">
@@ -6214,7 +6195,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
@@ -6271,57 +6252,57 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C18</f>
         <v>Custo Total de OURO</v>
       </c>
       <c r="B15" s="13">
-        <f>B16*B17</f>
+        <f t="shared" ref="B15:M15" si="5">B16*B17</f>
         <v>2800</v>
       </c>
       <c r="C15" s="13">
-        <f>C16*C17</f>
+        <f t="shared" si="5"/>
         <v>2800</v>
       </c>
       <c r="D15" s="13">
-        <f>D16*D17</f>
+        <f t="shared" si="5"/>
         <v>2800</v>
       </c>
       <c r="E15" s="13">
-        <f>E16*E17</f>
+        <f t="shared" si="5"/>
         <v>4200</v>
       </c>
       <c r="F15" s="13">
-        <f>F16*F17</f>
+        <f t="shared" si="5"/>
         <v>4200</v>
       </c>
       <c r="G15" s="13">
-        <f>G16*G17</f>
+        <f t="shared" si="5"/>
         <v>4200</v>
       </c>
       <c r="H15" s="13">
-        <f>H16*H17</f>
+        <f t="shared" si="5"/>
         <v>5600</v>
       </c>
       <c r="I15" s="13">
-        <f>I16*I17</f>
+        <f t="shared" si="5"/>
         <v>5600</v>
       </c>
       <c r="J15" s="13">
-        <f>J16*J17</f>
+        <f t="shared" si="5"/>
         <v>5600</v>
       </c>
       <c r="K15" s="13">
-        <f>K16*K17</f>
+        <f t="shared" si="5"/>
         <v>8400</v>
       </c>
       <c r="L15" s="13">
-        <f>L16*L17</f>
+        <f t="shared" si="5"/>
         <v>8400</v>
       </c>
       <c r="M15" s="13">
-        <f>M16*M17</f>
+        <f t="shared" si="5"/>
         <v>8400</v>
       </c>
       <c r="N15" s="14">
@@ -6329,7 +6310,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C18</f>
         <v>Custo de Prestação de Serviço de OURO</v>
@@ -6339,47 +6320,47 @@
         <v>280</v>
       </c>
       <c r="C16" s="18">
-        <f>$B16</f>
+        <f t="shared" ref="C16:M16" si="6">$B16</f>
         <v>280</v>
       </c>
       <c r="D16" s="18">
-        <f>$B16</f>
+        <f t="shared" si="6"/>
         <v>280</v>
       </c>
       <c r="E16" s="18">
-        <f>$B16</f>
+        <f t="shared" si="6"/>
         <v>280</v>
       </c>
       <c r="F16" s="18">
-        <f>$B16</f>
+        <f t="shared" si="6"/>
         <v>280</v>
       </c>
       <c r="G16" s="18">
-        <f>$B16</f>
+        <f t="shared" si="6"/>
         <v>280</v>
       </c>
       <c r="H16" s="18">
-        <f>$B16</f>
+        <f t="shared" si="6"/>
         <v>280</v>
       </c>
       <c r="I16" s="18">
-        <f>$B16</f>
+        <f t="shared" si="6"/>
         <v>280</v>
       </c>
       <c r="J16" s="18">
-        <f>$B16</f>
+        <f t="shared" si="6"/>
         <v>280</v>
       </c>
       <c r="K16" s="18">
-        <f>$B16</f>
+        <f t="shared" si="6"/>
         <v>280</v>
       </c>
       <c r="L16" s="18">
-        <f>$B16</f>
+        <f t="shared" si="6"/>
         <v>280</v>
       </c>
       <c r="M16" s="18">
-        <f>$B16</f>
+        <f t="shared" si="6"/>
         <v>280</v>
       </c>
       <c r="N16" s="17">
@@ -6387,7 +6368,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
@@ -6444,57 +6425,57 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C19</f>
         <v>Custo Total de DIAMANTE</v>
       </c>
       <c r="B19" s="13">
-        <f>B20*B21</f>
+        <f t="shared" ref="B19:M19" si="7">B20*B21</f>
         <v>800</v>
       </c>
       <c r="C19" s="13">
-        <f>C20*C21</f>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="D19" s="13">
-        <f>D20*D21</f>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="E19" s="13">
-        <f>E20*E21</f>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="F19" s="13">
-        <f>F20*F21</f>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="G19" s="13">
-        <f>G20*G21</f>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="H19" s="13">
-        <f>H20*H21</f>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="I19" s="13">
-        <f>I20*I21</f>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="J19" s="13">
-        <f>J20*J21</f>
+        <f t="shared" si="7"/>
         <v>4000</v>
       </c>
       <c r="K19" s="13">
-        <f>K20*K21</f>
+        <f t="shared" si="7"/>
         <v>4000</v>
       </c>
       <c r="L19" s="13">
-        <f>L20*L21</f>
+        <f t="shared" si="7"/>
         <v>4000</v>
       </c>
       <c r="M19" s="13">
-        <f>M20*M21</f>
+        <f t="shared" si="7"/>
         <v>4000</v>
       </c>
       <c r="N19" s="14">
@@ -6502,7 +6483,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C19</f>
         <v>Custo de Prestação de Serviço de DIAMANTE</v>
@@ -6512,47 +6493,47 @@
         <v>400</v>
       </c>
       <c r="C20" s="18">
-        <f>$B20</f>
+        <f t="shared" ref="C20:M20" si="8">$B20</f>
         <v>400</v>
       </c>
       <c r="D20" s="18">
-        <f>$B20</f>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="E20" s="18">
-        <f>$B20</f>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="F20" s="18">
-        <f>$B20</f>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="G20" s="18">
-        <f>$B20</f>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="H20" s="18">
-        <f>$B20</f>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="I20" s="18">
-        <f>$B20</f>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="J20" s="18">
-        <f>$B20</f>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="K20" s="18">
-        <f>$B20</f>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="L20" s="18">
-        <f>$B20</f>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="M20" s="18">
-        <f>$B20</f>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="N20" s="17">
@@ -6560,7 +6541,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="12.75">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
@@ -6617,7 +6598,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="12.75">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
@@ -6661,117 +6642,117 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="12.75">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="11">
-        <f>B27+B31+B35+B39</f>
+        <f t="shared" ref="B25:N25" si="9">B27+B31+B35+B39</f>
         <v>16621</v>
       </c>
       <c r="C25" s="11">
-        <f>C27+C31+C35+C39</f>
+        <f t="shared" si="9"/>
         <v>20482</v>
       </c>
       <c r="D25" s="11">
-        <f>D27+D31+D35+D39</f>
+        <f t="shared" si="9"/>
         <v>29920</v>
       </c>
       <c r="E25" s="11">
-        <f>E27+E31+E35+E39</f>
+        <f t="shared" si="9"/>
         <v>37796</v>
       </c>
       <c r="F25" s="11">
-        <f>F27+F31+F35+F39</f>
+        <f t="shared" si="9"/>
         <v>45276</v>
       </c>
       <c r="G25" s="11">
-        <f>G27+G31+G35+G39</f>
+        <f t="shared" si="9"/>
         <v>50996</v>
       </c>
       <c r="H25" s="11">
-        <f>H27+H31+H35+H39</f>
+        <f t="shared" si="9"/>
         <v>58564</v>
       </c>
       <c r="I25" s="11">
-        <f>I27+I31+I35+I39</f>
+        <f t="shared" si="9"/>
         <v>64284</v>
       </c>
       <c r="J25" s="11">
-        <f>J27+J31+J35+J39</f>
+        <f t="shared" si="9"/>
         <v>72644</v>
       </c>
       <c r="K25" s="11">
-        <f>K27+K31+K35+K39</f>
+        <f t="shared" si="9"/>
         <v>82368</v>
       </c>
       <c r="L25" s="11">
-        <f>L27+L31+L35+L39</f>
+        <f t="shared" si="9"/>
         <v>88088</v>
       </c>
       <c r="M25" s="11">
-        <f>M27+M31+M35+M39</f>
+        <f t="shared" si="9"/>
         <v>93808</v>
       </c>
       <c r="N25" s="11">
-        <f>N27+N31+N35+N39</f>
+        <f t="shared" si="9"/>
         <v>660847</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="12.75">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
     </row>
-    <row r="27" spans="1:15" ht="12.75">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C16</f>
         <v>Custo Total de BRONZE</v>
       </c>
       <c r="B27" s="13">
-        <f>B28*B29</f>
+        <f t="shared" ref="B27:M27" si="10">B28*B29</f>
         <v>2002</v>
       </c>
       <c r="C27" s="13">
-        <f>C28*C29</f>
+        <f t="shared" si="10"/>
         <v>4004</v>
       </c>
       <c r="D27" s="13">
-        <f>D28*D29</f>
+        <f t="shared" si="10"/>
         <v>6006</v>
       </c>
       <c r="E27" s="13">
-        <f>E28*E29</f>
+        <f t="shared" si="10"/>
         <v>8008</v>
       </c>
       <c r="F27" s="13">
-        <f>F28*F29</f>
+        <f t="shared" si="10"/>
         <v>10010</v>
       </c>
       <c r="G27" s="13">
-        <f>G28*G29</f>
+        <f t="shared" si="10"/>
         <v>12012</v>
       </c>
       <c r="H27" s="13">
-        <f>H28*H29</f>
+        <f t="shared" si="10"/>
         <v>14014</v>
       </c>
       <c r="I27" s="13">
-        <f>I28*I29</f>
+        <f t="shared" si="10"/>
         <v>16016</v>
       </c>
       <c r="J27" s="13">
-        <f>J28*J29</f>
+        <f t="shared" si="10"/>
         <v>18018</v>
       </c>
       <c r="K27" s="13">
-        <f>K28*K29</f>
+        <f t="shared" si="10"/>
         <v>20020</v>
       </c>
       <c r="L27" s="13">
-        <f>L28*L29</f>
+        <f t="shared" si="10"/>
         <v>22022</v>
       </c>
       <c r="M27" s="13">
-        <f>M28*M29</f>
+        <f t="shared" si="10"/>
         <v>24024</v>
       </c>
       <c r="N27" s="14">
@@ -6779,7 +6760,7 @@
         <v>156156</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15">
+    <row r="28" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C16</f>
         <v>Custo de Prestação de Serviço de BRONZE</v>
@@ -6838,7 +6819,7 @@
       </c>
       <c r="O28" s="37"/>
     </row>
-    <row r="29" spans="1:15" ht="12.75">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -6895,58 +6876,57 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="12.75"/>
-    <row r="31" spans="1:15" ht="12.75">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C17</f>
         <v>Custo Total de PRATA</v>
       </c>
       <c r="B31" s="13">
-        <f>B32*B33</f>
+        <f t="shared" ref="B31:M31" si="11">B32*B33</f>
         <v>9295</v>
       </c>
       <c r="C31" s="13">
-        <f>C32*C33</f>
+        <f t="shared" si="11"/>
         <v>11154</v>
       </c>
       <c r="D31" s="13">
-        <f>D32*D33</f>
+        <f t="shared" si="11"/>
         <v>18590</v>
       </c>
       <c r="E31" s="13">
-        <f>E32*E33</f>
+        <f t="shared" si="11"/>
         <v>22308</v>
       </c>
       <c r="F31" s="13">
-        <f>F32*F33</f>
+        <f t="shared" si="11"/>
         <v>26026</v>
       </c>
       <c r="G31" s="13">
-        <f>G32*G33</f>
+        <f t="shared" si="11"/>
         <v>29744</v>
       </c>
       <c r="H31" s="13">
-        <f>H32*H33</f>
+        <f t="shared" si="11"/>
         <v>33462</v>
       </c>
       <c r="I31" s="13">
-        <f>I32*I33</f>
+        <f t="shared" si="11"/>
         <v>37180</v>
       </c>
       <c r="J31" s="13">
-        <f>J32*J33</f>
+        <f t="shared" si="11"/>
         <v>40898</v>
       </c>
       <c r="K31" s="13">
-        <f>K32*K33</f>
+        <f t="shared" si="11"/>
         <v>44616</v>
       </c>
       <c r="L31" s="13">
-        <f>L32*L33</f>
+        <f t="shared" si="11"/>
         <v>48334</v>
       </c>
       <c r="M31" s="13">
-        <f>M32*M33</f>
+        <f t="shared" si="11"/>
         <v>52052</v>
       </c>
       <c r="N31" s="14">
@@ -6954,7 +6934,7 @@
         <v>373659</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="12.75">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C17</f>
         <v>Custo de Prestação de Serviço de PRATA</v>
@@ -7012,7 +6992,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="12.75">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>27</v>
       </c>
@@ -7069,58 +7049,57 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="12.75"/>
-    <row r="35" spans="1:14" ht="12.75">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C18</f>
         <v>Custo Total de OURO</v>
       </c>
       <c r="B35" s="13">
-        <f>B36*B37</f>
+        <f t="shared" ref="B35:M35" si="12">B36*B37</f>
         <v>4004</v>
       </c>
       <c r="C35" s="13">
-        <f>C36*C37</f>
+        <f t="shared" si="12"/>
         <v>4004</v>
       </c>
       <c r="D35" s="13">
-        <f>D36*D37</f>
+        <f t="shared" si="12"/>
         <v>4004</v>
       </c>
       <c r="E35" s="13">
-        <f>E36*E37</f>
+        <f t="shared" si="12"/>
         <v>6160</v>
       </c>
       <c r="F35" s="13">
-        <f>F36*F37</f>
+        <f t="shared" si="12"/>
         <v>6160</v>
       </c>
       <c r="G35" s="13">
-        <f>G36*G37</f>
+        <f t="shared" si="12"/>
         <v>6160</v>
       </c>
       <c r="H35" s="13">
-        <f>H36*H37</f>
+        <f t="shared" si="12"/>
         <v>8008</v>
       </c>
       <c r="I35" s="13">
-        <f>I36*I37</f>
+        <f t="shared" si="12"/>
         <v>8008</v>
       </c>
       <c r="J35" s="13">
-        <f>J36*J37</f>
+        <f t="shared" si="12"/>
         <v>8008</v>
       </c>
       <c r="K35" s="13">
-        <f>K36*K37</f>
+        <f t="shared" si="12"/>
         <v>12012</v>
       </c>
       <c r="L35" s="13">
-        <f>L36*L37</f>
+        <f t="shared" si="12"/>
         <v>12012</v>
       </c>
       <c r="M35" s="13">
-        <f>M36*M37</f>
+        <f t="shared" si="12"/>
         <v>12012</v>
       </c>
       <c r="N35" s="14">
@@ -7128,7 +7107,7 @@
         <v>90552</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="12.75">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C18</f>
         <v>Custo de Prestação de Serviço de OURO</v>
@@ -7186,7 +7165,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="12.75">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>27</v>
       </c>
@@ -7243,58 +7222,57 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="12.75"/>
-    <row r="39" spans="1:14" ht="12.75">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C19</f>
         <v>Custo Total de DIAMANTE</v>
       </c>
       <c r="B39" s="13">
-        <f>B40*B41</f>
+        <f t="shared" ref="B39:M39" si="13">B40*B41</f>
         <v>1320</v>
       </c>
       <c r="C39" s="13">
-        <f>C40*C41</f>
+        <f t="shared" si="13"/>
         <v>1320</v>
       </c>
       <c r="D39" s="13">
-        <f>D40*D41</f>
+        <f t="shared" si="13"/>
         <v>1320</v>
       </c>
       <c r="E39" s="13">
-        <f>E40*E41</f>
+        <f t="shared" si="13"/>
         <v>1320</v>
       </c>
       <c r="F39" s="13">
-        <f>F40*F41</f>
+        <f t="shared" si="13"/>
         <v>3080</v>
       </c>
       <c r="G39" s="13">
-        <f>G40*G41</f>
+        <f t="shared" si="13"/>
         <v>3080</v>
       </c>
       <c r="H39" s="13">
-        <f>H40*H41</f>
+        <f t="shared" si="13"/>
         <v>3080</v>
       </c>
       <c r="I39" s="13">
-        <f>I40*I41</f>
+        <f t="shared" si="13"/>
         <v>3080</v>
       </c>
       <c r="J39" s="13">
-        <f>J40*J41</f>
+        <f t="shared" si="13"/>
         <v>5720</v>
       </c>
       <c r="K39" s="13">
-        <f>K40*K41</f>
+        <f t="shared" si="13"/>
         <v>5720</v>
       </c>
       <c r="L39" s="13">
-        <f>L40*L41</f>
+        <f t="shared" si="13"/>
         <v>5720</v>
       </c>
       <c r="M39" s="13">
-        <f>M40*M41</f>
+        <f t="shared" si="13"/>
         <v>5720</v>
       </c>
       <c r="N39" s="14">
@@ -7302,7 +7280,7 @@
         <v>40480</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="12.75">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C19</f>
         <v>Custo de Prestação de Serviço de DIAMANTE</v>
@@ -7360,7 +7338,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="12.75">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>27</v>
       </c>
@@ -7417,7 +7395,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="12.75">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>24</v>
       </c>
@@ -7461,117 +7439,117 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="12.75">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="11">
-        <f>B47+B51+B55+B59</f>
+        <f t="shared" ref="B45:N45" si="14">B47+B51+B55+B59</f>
         <v>26293</v>
       </c>
       <c r="C45" s="11">
-        <f>C47+C51+C55+C59</f>
+        <f t="shared" si="14"/>
         <v>32336</v>
       </c>
       <c r="D45" s="11">
-        <f>D47+D51+D55+D59</f>
+        <f t="shared" si="14"/>
         <v>46785</v>
       </c>
       <c r="E45" s="11">
-        <f>E47+E51+E55+E59</f>
+        <f t="shared" si="14"/>
         <v>58705</v>
       </c>
       <c r="F45" s="11">
-        <f>F47+F51+F55+F59</f>
+        <f t="shared" si="14"/>
         <v>69837</v>
       </c>
       <c r="G45" s="11">
-        <f>G47+G51+G55+G59</f>
+        <f t="shared" si="14"/>
         <v>78791</v>
       </c>
       <c r="H45" s="11">
-        <f>H47+H51+H55+H59</f>
+        <f t="shared" si="14"/>
         <v>90554</v>
       </c>
       <c r="I45" s="11">
-        <f>I47+I51+I55+I59</f>
+        <f t="shared" si="14"/>
         <v>99351</v>
       </c>
       <c r="J45" s="11">
-        <f>J47+J51+J55+J59</f>
+        <f t="shared" si="14"/>
         <v>112576</v>
       </c>
       <c r="K45" s="11">
-        <f>K47+K51+K55+K59</f>
+        <f t="shared" si="14"/>
         <v>127390</v>
       </c>
       <c r="L45" s="11">
-        <f>L47+L51+L55+L59</f>
+        <f t="shared" si="14"/>
         <v>136344</v>
       </c>
       <c r="M45" s="11">
-        <f>M47+M51+M55+M59</f>
+        <f t="shared" si="14"/>
         <v>145056</v>
       </c>
       <c r="N45" s="11">
-        <f>N47+N51+N55+N59</f>
+        <f t="shared" si="14"/>
         <v>1024018</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="12.75">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
     </row>
-    <row r="47" spans="1:14" ht="12.75">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C16</f>
         <v>Custo Total de BRONZE</v>
       </c>
       <c r="B47" s="13">
-        <f>B48*B49</f>
+        <f t="shared" ref="B47:M47" si="15">B48*B49</f>
         <v>3145</v>
       </c>
       <c r="C47" s="13">
-        <f>C48*C49</f>
+        <f t="shared" si="15"/>
         <v>6205</v>
       </c>
       <c r="D47" s="13">
-        <f>D48*D49</f>
+        <f t="shared" si="15"/>
         <v>9350</v>
       </c>
       <c r="E47" s="13">
-        <f>E48*E49</f>
+        <f t="shared" si="15"/>
         <v>12410</v>
       </c>
       <c r="F47" s="13">
-        <f>F48*F49</f>
+        <f t="shared" si="15"/>
         <v>15470</v>
       </c>
       <c r="G47" s="13">
-        <f>G48*G49</f>
+        <f t="shared" si="15"/>
         <v>18615</v>
       </c>
       <c r="H47" s="13">
-        <f>H48*H49</f>
+        <f t="shared" si="15"/>
         <v>21675</v>
       </c>
       <c r="I47" s="13">
-        <f>I48*I49</f>
+        <f t="shared" si="15"/>
         <v>24820</v>
       </c>
       <c r="J47" s="13">
-        <f>J48*J49</f>
+        <f t="shared" si="15"/>
         <v>27880</v>
       </c>
       <c r="K47" s="13">
-        <f>K48*K49</f>
+        <f t="shared" si="15"/>
         <v>30940</v>
       </c>
       <c r="L47" s="13">
-        <f>L48*L49</f>
+        <f t="shared" si="15"/>
         <v>34085</v>
       </c>
       <c r="M47" s="13">
-        <f>M48*M49</f>
+        <f t="shared" si="15"/>
         <v>37145</v>
       </c>
       <c r="N47" s="14">
@@ -7579,7 +7557,7 @@
         <v>241740</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="12.75">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C16</f>
         <v>Custo de Prestação de Serviço de BRONZE</v>
@@ -7637,7 +7615,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="12.75">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>27</v>
       </c>
@@ -7694,58 +7672,57 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="12.75"/>
-    <row r="51" spans="1:14" ht="12.75">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C17</f>
         <v>Custo Total de PRATA</v>
       </c>
       <c r="B51" s="13">
-        <f>B52*B53</f>
+        <f t="shared" ref="B51:M51" si="16">B52*B53</f>
         <v>14287</v>
       </c>
       <c r="C51" s="13">
-        <f>C52*C53</f>
+        <f t="shared" si="16"/>
         <v>17270</v>
       </c>
       <c r="D51" s="13">
-        <f>D52*D53</f>
+        <f t="shared" si="16"/>
         <v>28574</v>
       </c>
       <c r="E51" s="13">
-        <f>E52*E53</f>
+        <f t="shared" si="16"/>
         <v>34383</v>
       </c>
       <c r="F51" s="13">
-        <f>F52*F53</f>
+        <f t="shared" si="16"/>
         <v>40035</v>
       </c>
       <c r="G51" s="13">
-        <f>G52*G53</f>
+        <f t="shared" si="16"/>
         <v>45844</v>
       </c>
       <c r="H51" s="13">
-        <f>H52*H53</f>
+        <f t="shared" si="16"/>
         <v>51496</v>
       </c>
       <c r="I51" s="13">
-        <f>I52*I53</f>
+        <f t="shared" si="16"/>
         <v>57148</v>
       </c>
       <c r="J51" s="13">
-        <f>J52*J53</f>
+        <f t="shared" si="16"/>
         <v>62957</v>
       </c>
       <c r="K51" s="13">
-        <f>K52*K53</f>
+        <f t="shared" si="16"/>
         <v>68609</v>
       </c>
       <c r="L51" s="13">
-        <f>L52*L53</f>
+        <f t="shared" si="16"/>
         <v>74418</v>
       </c>
       <c r="M51" s="13">
-        <f>M52*M53</f>
+        <f t="shared" si="16"/>
         <v>80070</v>
       </c>
       <c r="N51" s="14">
@@ -7753,7 +7730,7 @@
         <v>575091</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="12.75">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C17</f>
         <v>Custo de Prestação de Serviço de PRATA</v>
@@ -7811,7 +7788,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="12.75">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>27</v>
       </c>
@@ -7868,58 +7845,57 @@
         <v>3663</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="12.75"/>
-    <row r="55" spans="1:14" ht="12.75">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C18</f>
         <v>Custo Total de OURO</v>
       </c>
       <c r="B55" s="13">
-        <f>B56*B57</f>
+        <f t="shared" ref="B55:M55" si="17">B56*B57</f>
         <v>6441</v>
       </c>
       <c r="C55" s="13">
-        <f>C56*C57</f>
+        <f t="shared" si="17"/>
         <v>6441</v>
       </c>
       <c r="D55" s="13">
-        <f>D56*D57</f>
+        <f t="shared" si="17"/>
         <v>6441</v>
       </c>
       <c r="E55" s="13">
-        <f>E56*E57</f>
+        <f t="shared" si="17"/>
         <v>9492</v>
       </c>
       <c r="F55" s="13">
-        <f>F56*F57</f>
+        <f t="shared" si="17"/>
         <v>9492</v>
       </c>
       <c r="G55" s="13">
-        <f>G56*G57</f>
+        <f t="shared" si="17"/>
         <v>9492</v>
       </c>
       <c r="H55" s="13">
-        <f>H56*H57</f>
+        <f t="shared" si="17"/>
         <v>12543</v>
       </c>
       <c r="I55" s="13">
-        <f>I56*I57</f>
+        <f t="shared" si="17"/>
         <v>12543</v>
       </c>
       <c r="J55" s="13">
-        <f>J56*J57</f>
+        <f t="shared" si="17"/>
         <v>12543</v>
       </c>
       <c r="K55" s="13">
-        <f>K56*K57</f>
+        <f t="shared" si="17"/>
         <v>18645</v>
       </c>
       <c r="L55" s="13">
-        <f>L56*L57</f>
+        <f t="shared" si="17"/>
         <v>18645</v>
       </c>
       <c r="M55" s="13">
-        <f>M56*M57</f>
+        <f t="shared" si="17"/>
         <v>18645</v>
       </c>
       <c r="N55" s="14">
@@ -7927,7 +7903,7 @@
         <v>141363</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="12.75">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C18</f>
         <v>Custo de Prestação de Serviço de OURO</v>
@@ -7985,7 +7961,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="12.75">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>27</v>
       </c>
@@ -8042,58 +8018,57 @@
         <v>417</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="12.75"/>
-    <row r="59" spans="1:14" ht="12.75">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C19</f>
         <v>Custo Total de DIAMANTE</v>
       </c>
       <c r="B59" s="13">
-        <f>B60*B61</f>
+        <f t="shared" ref="B59:M59" si="18">B60*B61</f>
         <v>2420</v>
       </c>
       <c r="C59" s="13">
-        <f>C60*C61</f>
+        <f t="shared" si="18"/>
         <v>2420</v>
       </c>
       <c r="D59" s="13">
-        <f>D60*D61</f>
+        <f t="shared" si="18"/>
         <v>2420</v>
       </c>
       <c r="E59" s="13">
-        <f>E60*E61</f>
+        <f t="shared" si="18"/>
         <v>2420</v>
       </c>
       <c r="F59" s="13">
-        <f>F60*F61</f>
+        <f t="shared" si="18"/>
         <v>4840</v>
       </c>
       <c r="G59" s="13">
-        <f>G60*G61</f>
+        <f t="shared" si="18"/>
         <v>4840</v>
       </c>
       <c r="H59" s="13">
-        <f>H60*H61</f>
+        <f t="shared" si="18"/>
         <v>4840</v>
       </c>
       <c r="I59" s="13">
-        <f>I60*I61</f>
+        <f t="shared" si="18"/>
         <v>4840</v>
       </c>
       <c r="J59" s="13">
-        <f>J60*J61</f>
+        <f t="shared" si="18"/>
         <v>9196</v>
       </c>
       <c r="K59" s="13">
-        <f>K60*K61</f>
+        <f t="shared" si="18"/>
         <v>9196</v>
       </c>
       <c r="L59" s="13">
-        <f>L60*L61</f>
+        <f t="shared" si="18"/>
         <v>9196</v>
       </c>
       <c r="M59" s="13">
-        <f>M60*M61</f>
+        <f t="shared" si="18"/>
         <v>9196</v>
       </c>
       <c r="N59" s="14">
@@ -8101,7 +8076,7 @@
         <v>65824</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="12.75">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C19</f>
         <v>Custo de Prestação de Serviço de DIAMANTE</v>
@@ -8159,7 +8134,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="12.75">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>27</v>
       </c>
@@ -8216,7 +8191,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="12.75">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>24</v>
       </c>
@@ -8260,117 +8235,117 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="12.75">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B65" s="11">
-        <f>B67+B71+B75+B79</f>
+        <f t="shared" ref="B65:N65" si="19">B67+B71+B75+B79</f>
         <v>44038</v>
       </c>
       <c r="C65" s="11">
-        <f>C67+C71+C75+C79</f>
+        <f t="shared" si="19"/>
         <v>53958</v>
       </c>
       <c r="D65" s="11">
-        <f>D67+D71+D75+D79</f>
+        <f t="shared" si="19"/>
         <v>77812</v>
       </c>
       <c r="E65" s="11">
-        <f>E67+E71+E75+E79</f>
+        <f t="shared" si="19"/>
         <v>97425</v>
       </c>
       <c r="F65" s="11">
-        <f>F67+F71+F75+F79</f>
+        <f t="shared" si="19"/>
         <v>115567</v>
       </c>
       <c r="G65" s="11">
-        <f>G67+G71+G75+G79</f>
+        <f t="shared" si="19"/>
         <v>130346</v>
       </c>
       <c r="H65" s="11">
-        <f>H67+H71+H75+H79</f>
+        <f t="shared" si="19"/>
         <v>149986</v>
       </c>
       <c r="I65" s="11">
-        <f>I67+I71+I75+I79</f>
+        <f t="shared" si="19"/>
         <v>164498</v>
       </c>
       <c r="J65" s="11">
-        <f>J67+J71+J75+J79</f>
+        <f t="shared" si="19"/>
         <v>186710</v>
       </c>
       <c r="K65" s="11">
-        <f>K67+K71+K75+K79</f>
+        <f t="shared" si="19"/>
         <v>211199</v>
       </c>
       <c r="L65" s="11">
-        <f>L67+L71+L75+L79</f>
+        <f t="shared" si="19"/>
         <v>225978</v>
       </c>
       <c r="M65" s="11">
-        <f>M67+M71+M75+M79</f>
+        <f t="shared" si="19"/>
         <v>240396</v>
       </c>
       <c r="N65" s="11">
-        <f>N67+N71+N75+N79</f>
+        <f t="shared" si="19"/>
         <v>1697913</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="12.75">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
     </row>
-    <row r="67" spans="1:14" ht="12.75">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C16</f>
         <v>Custo Total de BRONZE</v>
       </c>
       <c r="B67" s="13">
-        <f>B68*B69</f>
+        <f t="shared" ref="B67:M67" si="20">B68*B69</f>
         <v>5264</v>
       </c>
       <c r="C67" s="13">
-        <f>C68*C69</f>
+        <f t="shared" si="20"/>
         <v>10340</v>
       </c>
       <c r="D67" s="13">
-        <f>D68*D69</f>
+        <f t="shared" si="20"/>
         <v>15510</v>
       </c>
       <c r="E67" s="13">
-        <f>E68*E69</f>
+        <f t="shared" si="20"/>
         <v>20586</v>
       </c>
       <c r="F67" s="13">
-        <f>F68*F69</f>
+        <f t="shared" si="20"/>
         <v>25662</v>
       </c>
       <c r="G67" s="13">
-        <f>G68*G69</f>
+        <f t="shared" si="20"/>
         <v>30926</v>
       </c>
       <c r="H67" s="13">
-        <f>H68*H69</f>
+        <f t="shared" si="20"/>
         <v>36002</v>
       </c>
       <c r="I67" s="13">
-        <f>I68*I69</f>
+        <f t="shared" si="20"/>
         <v>41172</v>
       </c>
       <c r="J67" s="13">
-        <f>J68*J69</f>
+        <f t="shared" si="20"/>
         <v>46248</v>
       </c>
       <c r="K67" s="13">
-        <f>K68*K69</f>
+        <f t="shared" si="20"/>
         <v>51324</v>
       </c>
       <c r="L67" s="13">
-        <f>L68*L69</f>
+        <f t="shared" si="20"/>
         <v>56588</v>
       </c>
       <c r="M67" s="13">
-        <f>M68*M69</f>
+        <f t="shared" si="20"/>
         <v>61664</v>
       </c>
       <c r="N67" s="14">
@@ -8378,7 +8353,7 @@
         <v>401286</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="12.75">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C16</f>
         <v>Custo de Prestação de Serviço de BRONZE</v>
@@ -8436,7 +8411,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="12.75">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>27</v>
       </c>
@@ -8493,58 +8468,57 @@
         <v>4269</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="12.75"/>
-    <row r="71" spans="1:14" ht="12.75">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C17</f>
         <v>Custo Total de PRATA</v>
       </c>
       <c r="B71" s="13">
-        <f>B72*B73</f>
+        <f t="shared" ref="B71:M71" si="21">B72*B73</f>
         <v>23701</v>
       </c>
       <c r="C71" s="13">
-        <f>C72*C73</f>
+        <f t="shared" si="21"/>
         <v>28545</v>
       </c>
       <c r="D71" s="13">
-        <f>D72*D73</f>
+        <f t="shared" si="21"/>
         <v>47229</v>
       </c>
       <c r="E71" s="13">
-        <f>E72*E73</f>
+        <f t="shared" si="21"/>
         <v>56917</v>
       </c>
       <c r="F71" s="13">
-        <f>F72*F73</f>
+        <f t="shared" si="21"/>
         <v>66259</v>
       </c>
       <c r="G71" s="13">
-        <f>G72*G73</f>
+        <f t="shared" si="21"/>
         <v>75774</v>
       </c>
       <c r="H71" s="13">
-        <f>H72*H73</f>
+        <f t="shared" si="21"/>
         <v>85116</v>
       </c>
       <c r="I71" s="13">
-        <f>I72*I73</f>
+        <f t="shared" si="21"/>
         <v>94458</v>
       </c>
       <c r="J71" s="13">
-        <f>J72*J73</f>
+        <f t="shared" si="21"/>
         <v>104146</v>
       </c>
       <c r="K71" s="13">
-        <f>K72*K73</f>
+        <f t="shared" si="21"/>
         <v>113488</v>
       </c>
       <c r="L71" s="13">
-        <f>L72*L73</f>
+        <f t="shared" si="21"/>
         <v>123003</v>
       </c>
       <c r="M71" s="13">
-        <f>M72*M73</f>
+        <f t="shared" si="21"/>
         <v>132345</v>
       </c>
       <c r="N71" s="14">
@@ -8552,7 +8526,7 @@
         <v>950981</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="12.75">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C17</f>
         <v>Custo de Prestação de Serviço de PRATA</v>
@@ -8610,7 +8584,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="12.75">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>27</v>
       </c>
@@ -8667,58 +8641,57 @@
         <v>5497</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="12.75"/>
-    <row r="75" spans="1:14" ht="12.75">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C18</f>
         <v>Custo Total de OURO</v>
       </c>
       <c r="B75" s="13">
-        <f>B76*B77</f>
+        <f t="shared" ref="B75:M75" si="22">B76*B77</f>
         <v>10817</v>
       </c>
       <c r="C75" s="13">
-        <f>C76*C77</f>
+        <f t="shared" si="22"/>
         <v>10817</v>
       </c>
       <c r="D75" s="13">
-        <f>D76*D77</f>
+        <f t="shared" si="22"/>
         <v>10817</v>
       </c>
       <c r="E75" s="13">
-        <f>E76*E77</f>
+        <f t="shared" si="22"/>
         <v>15666</v>
       </c>
       <c r="F75" s="13">
-        <f>F76*F77</f>
+        <f t="shared" si="22"/>
         <v>15666</v>
       </c>
       <c r="G75" s="13">
-        <f>G76*G77</f>
+        <f t="shared" si="22"/>
         <v>15666</v>
       </c>
       <c r="H75" s="13">
-        <f>H76*H77</f>
+        <f t="shared" si="22"/>
         <v>20888</v>
       </c>
       <c r="I75" s="13">
-        <f>I76*I77</f>
+        <f t="shared" si="22"/>
         <v>20888</v>
       </c>
       <c r="J75" s="13">
-        <f>J76*J77</f>
+        <f t="shared" si="22"/>
         <v>20888</v>
       </c>
       <c r="K75" s="13">
-        <f>K76*K77</f>
+        <f t="shared" si="22"/>
         <v>30959</v>
       </c>
       <c r="L75" s="13">
-        <f>L76*L77</f>
+        <f t="shared" si="22"/>
         <v>30959</v>
       </c>
       <c r="M75" s="13">
-        <f>M76*M77</f>
+        <f t="shared" si="22"/>
         <v>30959</v>
       </c>
       <c r="N75" s="14">
@@ -8726,7 +8699,7 @@
         <v>234990</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="12.75">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C18</f>
         <v>Custo de Prestação de Serviço de OURO</v>
@@ -8784,7 +8757,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="12.75">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>1</v>
       </c>
@@ -8841,58 +8814,57 @@
         <v>630</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="12.75"/>
-    <row r="79" spans="1:14" ht="12.75">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C19</f>
         <v>Custo Total de DIAMANTE</v>
       </c>
       <c r="B79" s="13">
-        <f>B80*B81</f>
+        <f t="shared" ref="B79:M79" si="23">B80*B81</f>
         <v>4256</v>
       </c>
       <c r="C79" s="13">
-        <f>C80*C81</f>
+        <f t="shared" si="23"/>
         <v>4256</v>
       </c>
       <c r="D79" s="13">
-        <f>D80*D81</f>
+        <f t="shared" si="23"/>
         <v>4256</v>
       </c>
       <c r="E79" s="13">
-        <f>E80*E81</f>
+        <f t="shared" si="23"/>
         <v>4256</v>
       </c>
       <c r="F79" s="13">
-        <f>F80*F81</f>
+        <f t="shared" si="23"/>
         <v>7980</v>
       </c>
       <c r="G79" s="13">
-        <f>G80*G81</f>
+        <f t="shared" si="23"/>
         <v>7980</v>
       </c>
       <c r="H79" s="13">
-        <f>H80*H81</f>
+        <f t="shared" si="23"/>
         <v>7980</v>
       </c>
       <c r="I79" s="13">
-        <f>I80*I81</f>
+        <f t="shared" si="23"/>
         <v>7980</v>
       </c>
       <c r="J79" s="13">
-        <f>J80*J81</f>
+        <f t="shared" si="23"/>
         <v>15428</v>
       </c>
       <c r="K79" s="13">
-        <f>K80*K81</f>
+        <f t="shared" si="23"/>
         <v>15428</v>
       </c>
       <c r="L79" s="13">
-        <f>L80*L81</f>
+        <f t="shared" si="23"/>
         <v>15428</v>
       </c>
       <c r="M79" s="13">
-        <f>M80*M81</f>
+        <f t="shared" si="23"/>
         <v>15428</v>
       </c>
       <c r="N79" s="14">
@@ -8900,7 +8872,7 @@
         <v>110656</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="12.75">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C19</f>
         <v>Custo de Prestação de Serviço de DIAMANTE</v>
@@ -8958,7 +8930,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="12.75">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>27</v>
       </c>
@@ -9015,7 +8987,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="12.75">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>24</v>
       </c>
@@ -9059,117 +9031,117 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="12.75">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B85" s="11">
-        <f>B87+B91+B95+B99</f>
+        <f t="shared" ref="B85:N85" si="24">B87+B91+B95+B99</f>
         <v>82848</v>
       </c>
       <c r="C85" s="11">
-        <f>C87+C91+C95+C99</f>
+        <f t="shared" si="24"/>
         <v>101341</v>
       </c>
       <c r="D85" s="11">
-        <f>D87+D91+D95+D99</f>
+        <f t="shared" si="24"/>
         <v>145983</v>
       </c>
       <c r="E85" s="11">
-        <f>E87+E91+E95+E99</f>
+        <f t="shared" si="24"/>
         <v>182529</v>
       </c>
       <c r="F85" s="11">
-        <f>F87+F91+F95+F99</f>
+        <f t="shared" si="24"/>
         <v>216505</v>
       </c>
       <c r="G85" s="11">
-        <f>G87+G91+G95+G99</f>
+        <f t="shared" si="24"/>
         <v>243960</v>
       </c>
       <c r="H85" s="11">
-        <f>H87+H91+H95+H99</f>
+        <f t="shared" si="24"/>
         <v>280756</v>
       </c>
       <c r="I85" s="11">
-        <f>I87+I91+I95+I99</f>
+        <f t="shared" si="24"/>
         <v>307815</v>
       </c>
       <c r="J85" s="11">
-        <f>J87+J91+J95+J99</f>
+        <f t="shared" si="24"/>
         <v>349381</v>
       </c>
       <c r="K85" s="11">
-        <f>K87+K91+K95+K99</f>
+        <f t="shared" si="24"/>
         <v>395197</v>
       </c>
       <c r="L85" s="11">
-        <f>L87+L91+L95+L99</f>
+        <f t="shared" si="24"/>
         <v>422652</v>
       </c>
       <c r="M85" s="11">
-        <f>M87+M91+M95+M99</f>
+        <f t="shared" si="24"/>
         <v>449608</v>
       </c>
       <c r="N85" s="11">
-        <f>N87+N91+N95+N99</f>
+        <f t="shared" si="24"/>
         <v>3178575</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="12.75">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
     </row>
-    <row r="87" spans="1:14" ht="12.75">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C16</f>
         <v>Custo Total de BRONZE</v>
       </c>
       <c r="B87" s="13">
-        <f>B88*B89</f>
+        <f t="shared" ref="B87:M87" si="25">B88*B89</f>
         <v>9888</v>
       </c>
       <c r="C87" s="13">
-        <f>C88*C89</f>
+        <f t="shared" si="25"/>
         <v>19261</v>
       </c>
       <c r="D87" s="13">
-        <f>D88*D89</f>
+        <f t="shared" si="25"/>
         <v>28943</v>
       </c>
       <c r="E87" s="13">
-        <f>E88*E89</f>
+        <f t="shared" si="25"/>
         <v>38419</v>
       </c>
       <c r="F87" s="13">
-        <f>F88*F89</f>
+        <f t="shared" si="25"/>
         <v>47895</v>
       </c>
       <c r="G87" s="13">
-        <f>G88*G89</f>
+        <f t="shared" si="25"/>
         <v>57680</v>
       </c>
       <c r="H87" s="13">
-        <f>H88*H89</f>
+        <f t="shared" si="25"/>
         <v>67156</v>
       </c>
       <c r="I87" s="13">
-        <f>I88*I89</f>
+        <f t="shared" si="25"/>
         <v>76735</v>
       </c>
       <c r="J87" s="13">
-        <f>J88*J89</f>
+        <f t="shared" si="25"/>
         <v>86211</v>
       </c>
       <c r="K87" s="13">
-        <f>K88*K89</f>
+        <f t="shared" si="25"/>
         <v>95687</v>
       </c>
       <c r="L87" s="13">
-        <f>L88*L89</f>
+        <f t="shared" si="25"/>
         <v>105472</v>
       </c>
       <c r="M87" s="13">
-        <f>M88*M89</f>
+        <f t="shared" si="25"/>
         <v>114948</v>
       </c>
       <c r="N87" s="14">
@@ -9177,7 +9149,7 @@
         <v>748295</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="12.75">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C16</f>
         <v>Custo de Prestação de Serviço de BRONZE</v>
@@ -9235,7 +9207,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="12.75">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>27</v>
       </c>
@@ -9292,58 +9264,57 @@
         <v>7265</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="12.75"/>
-    <row r="91" spans="1:14" ht="12.75">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C17</f>
         <v>Custo Total de PRATA</v>
       </c>
       <c r="B91" s="13">
-        <f>B92*B93</f>
+        <f t="shared" ref="B91:M91" si="26">B92*B93</f>
         <v>44270</v>
       </c>
       <c r="C91" s="13">
-        <f>C92*C93</f>
+        <f t="shared" si="26"/>
         <v>53390</v>
       </c>
       <c r="D91" s="13">
-        <f>D92*D93</f>
+        <f t="shared" si="26"/>
         <v>88350</v>
       </c>
       <c r="E91" s="13">
-        <f>E92*E93</f>
+        <f t="shared" si="26"/>
         <v>106400</v>
       </c>
       <c r="F91" s="13">
-        <f>F92*F93</f>
+        <f t="shared" si="26"/>
         <v>123880</v>
       </c>
       <c r="G91" s="13">
-        <f>G92*G93</f>
+        <f t="shared" si="26"/>
         <v>141550</v>
       </c>
       <c r="H91" s="13">
-        <f>H92*H93</f>
+        <f t="shared" si="26"/>
         <v>159030</v>
       </c>
       <c r="I91" s="13">
-        <f>I92*I93</f>
+        <f t="shared" si="26"/>
         <v>176510</v>
       </c>
       <c r="J91" s="13">
-        <f>J92*J93</f>
+        <f t="shared" si="26"/>
         <v>194560</v>
       </c>
       <c r="K91" s="13">
-        <f>K92*K93</f>
+        <f t="shared" si="26"/>
         <v>212040</v>
       </c>
       <c r="L91" s="13">
-        <f>L92*L93</f>
+        <f t="shared" si="26"/>
         <v>229710</v>
       </c>
       <c r="M91" s="13">
-        <f>M92*M93</f>
+        <f t="shared" si="26"/>
         <v>247190</v>
       </c>
       <c r="N91" s="14">
@@ -9351,7 +9322,7 @@
         <v>1776880</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="12.75">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C17</f>
         <v>Custo de Prestação de Serviço de PRATA</v>
@@ -9409,7 +9380,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="12.75">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>27</v>
       </c>
@@ -9466,58 +9437,57 @@
         <v>9352</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="12.75"/>
-    <row r="95" spans="1:14" ht="12.75">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C18</f>
         <v>Custo Total de OURO</v>
       </c>
       <c r="B95" s="13">
-        <f>B96*B97</f>
+        <f t="shared" ref="B95:M95" si="27">B96*B97</f>
         <v>20500</v>
       </c>
       <c r="C95" s="13">
-        <f>C96*C97</f>
+        <f t="shared" si="27"/>
         <v>20500</v>
       </c>
       <c r="D95" s="13">
-        <f>D96*D97</f>
+        <f t="shared" si="27"/>
         <v>20500</v>
       </c>
       <c r="E95" s="13">
-        <f>E96*E97</f>
+        <f t="shared" si="27"/>
         <v>29520</v>
       </c>
       <c r="F95" s="13">
-        <f>F96*F97</f>
+        <f t="shared" si="27"/>
         <v>29520</v>
       </c>
       <c r="G95" s="13">
-        <f>G96*G97</f>
+        <f t="shared" si="27"/>
         <v>29520</v>
       </c>
       <c r="H95" s="13">
-        <f>H96*H97</f>
+        <f t="shared" si="27"/>
         <v>39360</v>
       </c>
       <c r="I95" s="13">
-        <f>I96*I97</f>
+        <f t="shared" si="27"/>
         <v>39360</v>
       </c>
       <c r="J95" s="13">
-        <f>J96*J97</f>
+        <f t="shared" si="27"/>
         <v>39360</v>
       </c>
       <c r="K95" s="13">
-        <f>K96*K97</f>
+        <f t="shared" si="27"/>
         <v>58220</v>
       </c>
       <c r="L95" s="13">
-        <f>L96*L97</f>
+        <f t="shared" si="27"/>
         <v>58220</v>
       </c>
       <c r="M95" s="13">
-        <f>M96*M97</f>
+        <f t="shared" si="27"/>
         <v>58220</v>
       </c>
       <c r="N95" s="14">
@@ -9525,7 +9495,7 @@
         <v>442800</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="12.75">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C18</f>
         <v>Custo de Prestação de Serviço de OURO</v>
@@ -9583,7 +9553,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="12.75">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B97" s="5">
         <f>'Entrada de $'!B96</f>
         <v>50</v>
@@ -9637,58 +9607,57 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="12.75"/>
-    <row r="99" spans="1:14" ht="12.75">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="str">
         <f>"Custo Total de "&amp;InformacoesBasicas!C19</f>
         <v>Custo Total de DIAMANTE</v>
       </c>
       <c r="B99" s="13">
-        <f>B100*B101</f>
+        <f t="shared" ref="B99:M99" si="28">B100*B101</f>
         <v>8190</v>
       </c>
       <c r="C99" s="13">
-        <f>C100*C101</f>
+        <f t="shared" si="28"/>
         <v>8190</v>
       </c>
       <c r="D99" s="13">
-        <f>D100*D101</f>
+        <f t="shared" si="28"/>
         <v>8190</v>
       </c>
       <c r="E99" s="13">
-        <f>E100*E101</f>
+        <f t="shared" si="28"/>
         <v>8190</v>
       </c>
       <c r="F99" s="13">
-        <f>F100*F101</f>
+        <f t="shared" si="28"/>
         <v>15210</v>
       </c>
       <c r="G99" s="13">
-        <f>G100*G101</f>
+        <f t="shared" si="28"/>
         <v>15210</v>
       </c>
       <c r="H99" s="13">
-        <f>H100*H101</f>
+        <f t="shared" si="28"/>
         <v>15210</v>
       </c>
       <c r="I99" s="13">
-        <f>I100*I101</f>
+        <f t="shared" si="28"/>
         <v>15210</v>
       </c>
       <c r="J99" s="13">
-        <f>J100*J101</f>
+        <f t="shared" si="28"/>
         <v>29250</v>
       </c>
       <c r="K99" s="13">
-        <f>K100*K101</f>
+        <f t="shared" si="28"/>
         <v>29250</v>
       </c>
       <c r="L99" s="13">
-        <f>L100*L101</f>
+        <f t="shared" si="28"/>
         <v>29250</v>
       </c>
       <c r="M99" s="13">
-        <f>M100*M101</f>
+        <f t="shared" si="28"/>
         <v>29250</v>
       </c>
       <c r="N99" s="14">
@@ -9696,7 +9665,7 @@
         <v>210600</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="12.75">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="str">
         <f>IF(InformacoesBasicas!B10=1,"Custo de Aquisição de ",IF(InformacoesBasicas!B10=2,"Custo de Prestação de Serviço de ",IF(InformacoesBasicas!B10=3,"Custo de Fabricação de ","Custo de")))&amp;InformacoesBasicas!C19</f>
         <v>Custo de Prestação de Serviço de DIAMANTE</v>
@@ -9754,7 +9723,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="12.75">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>27</v>
       </c>
@@ -9822,29 +9791,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" style="19" customWidth="1"/>
     <col min="2" max="2" width="12" style="18" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="18" customWidth="1"/>
     <col min="4" max="15" width="11" style="18" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" style="17" customWidth="1"/>
-    <col min="17" max="1024" width="9.140625" style="19"/>
+    <col min="16" max="16" width="15.44140625" style="17" customWidth="1"/>
+    <col min="17" max="1024" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.95">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="22" customFormat="1" ht="12.75">
+    <row r="4" spans="1:17" s="22" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>24</v>
       </c>
@@ -9895,7 +9864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="12.75">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>38</v>
       </c>
@@ -9905,51 +9874,51 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11">
-        <f>D19</f>
+        <f t="shared" ref="D5:O5" si="0">D19</f>
         <v>34000</v>
       </c>
       <c r="E5" s="11">
-        <f>E19</f>
+        <f t="shared" si="0"/>
         <v>34000</v>
       </c>
       <c r="F5" s="11">
-        <f>F19</f>
+        <f t="shared" si="0"/>
         <v>37000</v>
       </c>
       <c r="G5" s="11">
-        <f>G19</f>
+        <f t="shared" si="0"/>
         <v>37000</v>
       </c>
       <c r="H5" s="11">
-        <f>H19</f>
+        <f t="shared" si="0"/>
         <v>37000</v>
       </c>
       <c r="I5" s="11">
-        <f>I19</f>
+        <f t="shared" si="0"/>
         <v>37000</v>
       </c>
       <c r="J5" s="11">
-        <f>J19</f>
+        <f t="shared" si="0"/>
         <v>37000</v>
       </c>
       <c r="K5" s="11">
-        <f>K19</f>
+        <f t="shared" si="0"/>
         <v>37000</v>
       </c>
       <c r="L5" s="11">
-        <f>L19</f>
+        <f t="shared" si="0"/>
         <v>37000</v>
       </c>
       <c r="M5" s="11">
-        <f>M19</f>
+        <f t="shared" si="0"/>
         <v>37000</v>
       </c>
       <c r="N5" s="11">
-        <f>N19</f>
+        <f t="shared" si="0"/>
         <v>37000</v>
       </c>
       <c r="O5" s="11">
-        <f>O19</f>
+        <f t="shared" si="0"/>
         <v>37000</v>
       </c>
       <c r="P5" s="24">
@@ -9960,58 +9929,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="12.75">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11">
-        <f>D27</f>
+        <f t="shared" ref="D6:O6" si="1">D27</f>
         <v>44000</v>
       </c>
       <c r="E6" s="11">
-        <f>E27</f>
+        <f t="shared" si="1"/>
         <v>44000</v>
       </c>
       <c r="F6" s="11">
-        <f>F27</f>
+        <f t="shared" si="1"/>
         <v>44000</v>
       </c>
       <c r="G6" s="11">
-        <f>G27</f>
+        <f t="shared" si="1"/>
         <v>44000</v>
       </c>
       <c r="H6" s="11">
-        <f>H27</f>
+        <f t="shared" si="1"/>
         <v>44000</v>
       </c>
       <c r="I6" s="11">
-        <f>I27</f>
+        <f t="shared" si="1"/>
         <v>44000</v>
       </c>
       <c r="J6" s="11">
-        <f>J27</f>
+        <f t="shared" si="1"/>
         <v>44000</v>
       </c>
       <c r="K6" s="11">
-        <f>K27</f>
+        <f t="shared" si="1"/>
         <v>44000</v>
       </c>
       <c r="L6" s="11">
-        <f>L27</f>
+        <f t="shared" si="1"/>
         <v>44000</v>
       </c>
       <c r="M6" s="11">
-        <f>M27</f>
+        <f t="shared" si="1"/>
         <v>44000</v>
       </c>
       <c r="N6" s="11">
-        <f>N27</f>
+        <f t="shared" si="1"/>
         <v>44000</v>
       </c>
       <c r="O6" s="11">
-        <f>O27</f>
+        <f t="shared" si="1"/>
         <v>44000</v>
       </c>
       <c r="P6" s="24">
@@ -10022,58 +9991,58 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="12.75">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11">
-        <f>D34</f>
+        <f t="shared" ref="D7:O7" si="2">D34</f>
         <v>45500</v>
       </c>
       <c r="E7" s="11">
-        <f>E34</f>
+        <f t="shared" si="2"/>
         <v>45500</v>
       </c>
       <c r="F7" s="11">
-        <f>F34</f>
+        <f t="shared" si="2"/>
         <v>45500</v>
       </c>
       <c r="G7" s="11">
-        <f>G34</f>
+        <f t="shared" si="2"/>
         <v>45500</v>
       </c>
       <c r="H7" s="11">
-        <f>H34</f>
+        <f t="shared" si="2"/>
         <v>45500</v>
       </c>
       <c r="I7" s="11">
-        <f>I34</f>
+        <f t="shared" si="2"/>
         <v>45500</v>
       </c>
       <c r="J7" s="11">
-        <f>J34</f>
+        <f t="shared" si="2"/>
         <v>45500</v>
       </c>
       <c r="K7" s="11">
-        <f>K34</f>
+        <f t="shared" si="2"/>
         <v>45500</v>
       </c>
       <c r="L7" s="11">
-        <f>L34</f>
+        <f t="shared" si="2"/>
         <v>45500</v>
       </c>
       <c r="M7" s="11">
-        <f>M34</f>
+        <f t="shared" si="2"/>
         <v>45500</v>
       </c>
       <c r="N7" s="11">
-        <f>N34</f>
+        <f t="shared" si="2"/>
         <v>45500</v>
       </c>
       <c r="O7" s="11">
-        <f>O34</f>
+        <f t="shared" si="2"/>
         <v>45500</v>
       </c>
       <c r="P7" s="24">
@@ -10084,58 +10053,58 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="12.75">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11">
-        <f>D41</f>
+        <f t="shared" ref="D8:O8" si="3">D41</f>
         <v>49500</v>
       </c>
       <c r="E8" s="11">
-        <f>E41</f>
+        <f t="shared" si="3"/>
         <v>49500</v>
       </c>
       <c r="F8" s="11">
-        <f>F41</f>
+        <f t="shared" si="3"/>
         <v>49500</v>
       </c>
       <c r="G8" s="11">
-        <f>G41</f>
+        <f t="shared" si="3"/>
         <v>49500</v>
       </c>
       <c r="H8" s="11">
-        <f>H41</f>
+        <f t="shared" si="3"/>
         <v>49500</v>
       </c>
       <c r="I8" s="11">
-        <f>I41</f>
+        <f t="shared" si="3"/>
         <v>49500</v>
       </c>
       <c r="J8" s="11">
-        <f>J41</f>
+        <f t="shared" si="3"/>
         <v>49500</v>
       </c>
       <c r="K8" s="11">
-        <f>K41</f>
+        <f t="shared" si="3"/>
         <v>49500</v>
       </c>
       <c r="L8" s="11">
-        <f>L41</f>
+        <f t="shared" si="3"/>
         <v>49500</v>
       </c>
       <c r="M8" s="11">
-        <f>M41</f>
+        <f t="shared" si="3"/>
         <v>49500</v>
       </c>
       <c r="N8" s="11">
-        <f>N41</f>
+        <f t="shared" si="3"/>
         <v>49500</v>
       </c>
       <c r="O8" s="11">
-        <f>O41</f>
+        <f t="shared" si="3"/>
         <v>49500</v>
       </c>
       <c r="P8" s="24">
@@ -10146,58 +10115,58 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="12.75">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11">
-        <f>D48</f>
+        <f t="shared" ref="D9:O9" si="4">D48</f>
         <v>54500</v>
       </c>
       <c r="E9" s="11">
-        <f>E48</f>
+        <f t="shared" si="4"/>
         <v>54500</v>
       </c>
       <c r="F9" s="11">
-        <f>F48</f>
+        <f t="shared" si="4"/>
         <v>54500</v>
       </c>
       <c r="G9" s="11">
-        <f>G48</f>
+        <f t="shared" si="4"/>
         <v>54500</v>
       </c>
       <c r="H9" s="11">
-        <f>H48</f>
+        <f t="shared" si="4"/>
         <v>54500</v>
       </c>
       <c r="I9" s="11">
-        <f>I48</f>
+        <f t="shared" si="4"/>
         <v>54500</v>
       </c>
       <c r="J9" s="11">
-        <f>J48</f>
+        <f t="shared" si="4"/>
         <v>54500</v>
       </c>
       <c r="K9" s="11">
-        <f>K48</f>
+        <f t="shared" si="4"/>
         <v>54500</v>
       </c>
       <c r="L9" s="11">
-        <f>L48</f>
+        <f t="shared" si="4"/>
         <v>54500</v>
       </c>
       <c r="M9" s="11">
-        <f>M48</f>
+        <f t="shared" si="4"/>
         <v>54500</v>
       </c>
       <c r="N9" s="11">
-        <f>N48</f>
+        <f t="shared" si="4"/>
         <v>54500</v>
       </c>
       <c r="O9" s="11">
-        <f>O48</f>
+        <f t="shared" si="4"/>
         <v>54500</v>
       </c>
       <c r="P9" s="24">
@@ -10208,13 +10177,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="12.75"/>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>44</v>
       </c>
@@ -10223,7 +10191,7 @@
         <v>64500</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="12.75">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>45</v>
       </c>
@@ -10231,7 +10199,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>46</v>
       </c>
@@ -10242,7 +10210,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>47</v>
       </c>
@@ -10251,7 +10219,7 @@
       </c>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>48</v>
       </c>
@@ -10260,60 +10228,60 @@
       </c>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B17" s="16"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="19" spans="1:17" ht="12.75">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="13">
-        <f>SUM(D20:D23)</f>
+        <f t="shared" ref="D19:O19" si="5">SUM(D20:D23)</f>
         <v>34000</v>
       </c>
       <c r="E19" s="13">
-        <f>SUM(E20:E23)</f>
+        <f t="shared" si="5"/>
         <v>34000</v>
       </c>
       <c r="F19" s="13">
-        <f>SUM(F20:F23)</f>
+        <f t="shared" si="5"/>
         <v>37000</v>
       </c>
       <c r="G19" s="13">
-        <f>SUM(G20:G23)</f>
+        <f t="shared" si="5"/>
         <v>37000</v>
       </c>
       <c r="H19" s="13">
-        <f>SUM(H20:H23)</f>
+        <f t="shared" si="5"/>
         <v>37000</v>
       </c>
       <c r="I19" s="13">
-        <f>SUM(I20:I23)</f>
+        <f t="shared" si="5"/>
         <v>37000</v>
       </c>
       <c r="J19" s="13">
-        <f>SUM(J20:J23)</f>
+        <f t="shared" si="5"/>
         <v>37000</v>
       </c>
       <c r="K19" s="13">
-        <f>SUM(K20:K23)</f>
+        <f t="shared" si="5"/>
         <v>37000</v>
       </c>
       <c r="L19" s="13">
-        <f>SUM(L20:L23)</f>
+        <f t="shared" si="5"/>
         <v>37000</v>
       </c>
       <c r="M19" s="13">
-        <f>SUM(M20:M23)</f>
+        <f t="shared" si="5"/>
         <v>37000</v>
       </c>
       <c r="N19" s="13">
-        <f>SUM(N20:N23)</f>
+        <f t="shared" si="5"/>
         <v>37000</v>
       </c>
       <c r="O19" s="13">
-        <f>SUM(O20:O23)</f>
+        <f t="shared" si="5"/>
         <v>37000</v>
       </c>
       <c r="P19" s="14">
@@ -10324,7 +10292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="12.75">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>50</v>
       </c>
@@ -10372,7 +10340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="12.75">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>47</v>
       </c>
@@ -10420,7 +10388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="12.75">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>51</v>
       </c>
@@ -10468,7 +10436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="12.75">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>48</v>
       </c>
@@ -10516,58 +10484,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="12.75"/>
-    <row r="25" spans="1:17" ht="12.75"/>
-    <row r="27" spans="1:17" ht="12.75">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="13">
-        <f>SUM(D28:D31)</f>
+        <f t="shared" ref="D27:O27" si="6">SUM(D28:D31)</f>
         <v>44000</v>
       </c>
       <c r="E27" s="13">
-        <f>SUM(E28:E31)</f>
+        <f t="shared" si="6"/>
         <v>44000</v>
       </c>
       <c r="F27" s="13">
-        <f>SUM(F28:F31)</f>
+        <f t="shared" si="6"/>
         <v>44000</v>
       </c>
       <c r="G27" s="13">
-        <f>SUM(G28:G31)</f>
+        <f t="shared" si="6"/>
         <v>44000</v>
       </c>
       <c r="H27" s="13">
-        <f>SUM(H28:H31)</f>
+        <f t="shared" si="6"/>
         <v>44000</v>
       </c>
       <c r="I27" s="13">
-        <f>SUM(I28:I31)</f>
+        <f t="shared" si="6"/>
         <v>44000</v>
       </c>
       <c r="J27" s="13">
-        <f>SUM(J28:J31)</f>
+        <f t="shared" si="6"/>
         <v>44000</v>
       </c>
       <c r="K27" s="13">
-        <f>SUM(K28:K31)</f>
+        <f t="shared" si="6"/>
         <v>44000</v>
       </c>
       <c r="L27" s="13">
-        <f>SUM(L28:L31)</f>
+        <f t="shared" si="6"/>
         <v>44000</v>
       </c>
       <c r="M27" s="13">
-        <f>SUM(M28:M31)</f>
+        <f t="shared" si="6"/>
         <v>44000</v>
       </c>
       <c r="N27" s="13">
-        <f>SUM(N28:N31)</f>
+        <f t="shared" si="6"/>
         <v>44000</v>
       </c>
       <c r="O27" s="13">
-        <f>SUM(O28:O31)</f>
+        <f t="shared" si="6"/>
         <v>44000</v>
       </c>
       <c r="P27" s="14">
@@ -10578,7 +10544,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="12.75">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>50</v>
       </c>
@@ -10626,7 +10592,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="12.75">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>47</v>
       </c>
@@ -10674,7 +10640,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="12.75">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>51</v>
       </c>
@@ -10722,7 +10688,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="12.75">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>48</v>
       </c>
@@ -10770,56 +10736,56 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="12.75">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="13">
-        <f>SUM(D35:D38)</f>
+        <f t="shared" ref="D34:O34" si="7">SUM(D35:D38)</f>
         <v>45500</v>
       </c>
       <c r="E34" s="13">
-        <f>SUM(E35:E38)</f>
+        <f t="shared" si="7"/>
         <v>45500</v>
       </c>
       <c r="F34" s="13">
-        <f>SUM(F35:F38)</f>
+        <f t="shared" si="7"/>
         <v>45500</v>
       </c>
       <c r="G34" s="13">
-        <f>SUM(G35:G38)</f>
+        <f t="shared" si="7"/>
         <v>45500</v>
       </c>
       <c r="H34" s="13">
-        <f>SUM(H35:H38)</f>
+        <f t="shared" si="7"/>
         <v>45500</v>
       </c>
       <c r="I34" s="13">
-        <f>SUM(I35:I38)</f>
+        <f t="shared" si="7"/>
         <v>45500</v>
       </c>
       <c r="J34" s="13">
-        <f>SUM(J35:J38)</f>
+        <f t="shared" si="7"/>
         <v>45500</v>
       </c>
       <c r="K34" s="13">
-        <f>SUM(K35:K38)</f>
+        <f t="shared" si="7"/>
         <v>45500</v>
       </c>
       <c r="L34" s="13">
-        <f>SUM(L35:L38)</f>
+        <f t="shared" si="7"/>
         <v>45500</v>
       </c>
       <c r="M34" s="13">
-        <f>SUM(M35:M38)</f>
+        <f t="shared" si="7"/>
         <v>45500</v>
       </c>
       <c r="N34" s="13">
-        <f>SUM(N35:N38)</f>
+        <f t="shared" si="7"/>
         <v>45500</v>
       </c>
       <c r="O34" s="13">
-        <f>SUM(O35:O38)</f>
+        <f t="shared" si="7"/>
         <v>45500</v>
       </c>
       <c r="P34" s="14">
@@ -10830,7 +10796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="12.75">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>50</v>
       </c>
@@ -10878,7 +10844,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="12.75">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>47</v>
       </c>
@@ -10926,7 +10892,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="12.75">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>51</v>
       </c>
@@ -10974,7 +10940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="12.75">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>48</v>
       </c>
@@ -11022,56 +10988,56 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="12.75">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="13">
-        <f>SUM(D42:D45)</f>
+        <f t="shared" ref="D41:O41" si="8">SUM(D42:D45)</f>
         <v>49500</v>
       </c>
       <c r="E41" s="13">
-        <f>SUM(E42:E45)</f>
+        <f t="shared" si="8"/>
         <v>49500</v>
       </c>
       <c r="F41" s="13">
-        <f>SUM(F42:F45)</f>
+        <f t="shared" si="8"/>
         <v>49500</v>
       </c>
       <c r="G41" s="13">
-        <f>SUM(G42:G45)</f>
+        <f t="shared" si="8"/>
         <v>49500</v>
       </c>
       <c r="H41" s="13">
-        <f>SUM(H42:H45)</f>
+        <f t="shared" si="8"/>
         <v>49500</v>
       </c>
       <c r="I41" s="13">
-        <f>SUM(I42:I45)</f>
+        <f t="shared" si="8"/>
         <v>49500</v>
       </c>
       <c r="J41" s="13">
-        <f>SUM(J42:J45)</f>
+        <f t="shared" si="8"/>
         <v>49500</v>
       </c>
       <c r="K41" s="13">
-        <f>SUM(K42:K45)</f>
+        <f t="shared" si="8"/>
         <v>49500</v>
       </c>
       <c r="L41" s="13">
-        <f>SUM(L42:L45)</f>
+        <f t="shared" si="8"/>
         <v>49500</v>
       </c>
       <c r="M41" s="13">
-        <f>SUM(M42:M45)</f>
+        <f t="shared" si="8"/>
         <v>49500</v>
       </c>
       <c r="N41" s="13">
-        <f>SUM(N42:N45)</f>
+        <f t="shared" si="8"/>
         <v>49500</v>
       </c>
       <c r="O41" s="13">
-        <f>SUM(O42:O45)</f>
+        <f t="shared" si="8"/>
         <v>49500</v>
       </c>
       <c r="P41" s="14">
@@ -11082,7 +11048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="12.75">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>50</v>
       </c>
@@ -11130,7 +11096,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="12.75">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>47</v>
       </c>
@@ -11178,7 +11144,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="12.75">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>51</v>
       </c>
@@ -11226,7 +11192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="12.75">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>48</v>
       </c>
@@ -11274,56 +11240,56 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="12.75">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="13">
-        <f>SUM(D49:D52)</f>
+        <f t="shared" ref="D48:O48" si="9">SUM(D49:D52)</f>
         <v>54500</v>
       </c>
       <c r="E48" s="13">
-        <f>SUM(E49:E52)</f>
+        <f t="shared" si="9"/>
         <v>54500</v>
       </c>
       <c r="F48" s="13">
-        <f>SUM(F49:F52)</f>
+        <f t="shared" si="9"/>
         <v>54500</v>
       </c>
       <c r="G48" s="13">
-        <f>SUM(G49:G52)</f>
+        <f t="shared" si="9"/>
         <v>54500</v>
       </c>
       <c r="H48" s="13">
-        <f>SUM(H49:H52)</f>
+        <f t="shared" si="9"/>
         <v>54500</v>
       </c>
       <c r="I48" s="13">
-        <f>SUM(I49:I52)</f>
+        <f t="shared" si="9"/>
         <v>54500</v>
       </c>
       <c r="J48" s="13">
-        <f>SUM(J49:J52)</f>
+        <f t="shared" si="9"/>
         <v>54500</v>
       </c>
       <c r="K48" s="13">
-        <f>SUM(K49:K52)</f>
+        <f t="shared" si="9"/>
         <v>54500</v>
       </c>
       <c r="L48" s="13">
-        <f>SUM(L49:L52)</f>
+        <f t="shared" si="9"/>
         <v>54500</v>
       </c>
       <c r="M48" s="13">
-        <f>SUM(M49:M52)</f>
+        <f t="shared" si="9"/>
         <v>54500</v>
       </c>
       <c r="N48" s="13">
-        <f>SUM(N49:N52)</f>
+        <f t="shared" si="9"/>
         <v>54500</v>
       </c>
       <c r="O48" s="13">
-        <f>SUM(O49:O52)</f>
+        <f t="shared" si="9"/>
         <v>54500</v>
       </c>
       <c r="P48" s="14">
@@ -11334,7 +11300,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="12.75">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>50</v>
       </c>
@@ -11382,7 +11348,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="12.75">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>47</v>
       </c>
@@ -11430,7 +11396,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="12.75">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>51</v>
       </c>
@@ -11478,7 +11444,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="12.75">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>48</v>
       </c>
@@ -11537,23 +11503,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="27" customWidth="1"/>
-    <col min="2" max="7" width="15.28515625" style="27" customWidth="1"/>
-    <col min="8" max="1024" width="9.140625" style="27"/>
+    <col min="1" max="1" width="30.44140625" style="27" customWidth="1"/>
+    <col min="2" max="7" width="15.33203125" style="27" customWidth="1"/>
+    <col min="8" max="1024" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.95">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
         <v>53</v>
       </c>
@@ -11570,7 +11534,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>58</v>
       </c>
@@ -11595,7 +11559,7 @@
         <v>4750858.0899999989</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>59</v>
       </c>
@@ -11620,7 +11584,7 @@
         <v>237542.90449999995</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>60</v>
       </c>
@@ -11645,7 +11609,7 @@
         <v>4513315.1854999987</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>61</v>
       </c>
@@ -11670,7 +11634,7 @@
         <v>3178575</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>62</v>
       </c>
@@ -11695,7 +11659,7 @@
         <v>599500</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>63</v>
       </c>
@@ -11720,7 +11684,7 @@
         <v>735240.18549999874</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>64</v>
       </c>
@@ -11745,7 +11709,7 @@
         <v>183810.04637499969</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>65</v>
       </c>
@@ -11770,12 +11734,12 @@
         <v>551430.13912499906</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.95">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.95">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="28" t="s">
         <v>53</v>
@@ -11793,7 +11757,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>67</v>
       </c>
@@ -11818,7 +11782,7 @@
         <v>4750858.0899999989</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>68</v>
       </c>
@@ -11843,7 +11807,7 @@
         <v>4199427.9508749992</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>69</v>
       </c>
@@ -11868,7 +11832,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>70</v>
       </c>
@@ -11893,7 +11857,7 @@
         <v>561430.13912499975</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>71</v>
       </c>
@@ -11906,7 +11870,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>73</v>
       </c>
@@ -11929,7 +11893,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>70</v>
       </c>
